--- a/calc/files/letter_int.xlsx
+++ b/calc/files/letter_int.xlsx
@@ -37,7 +37,7 @@
         <rFont val="Microsoft Sans Serif"/>
         <sz val="9.5"/>
       </rPr>
-      <t>"25" июля 2024 № 711</t>
+      <t>24 декабря 2024 № 1181</t>
     </r>
   </si>
   <si>
@@ -57,7 +57,7 @@
         <i val="true"/>
         <sz val="9.5"/>
       </rPr>
-      <t>в действии с 01.08.2024</t>
+      <t>в действии с 01.01.2025</t>
     </r>
   </si>
   <si>
@@ -295,6 +295,7 @@
       <t>Простые мелкие пакеты в Австралию</t>
     </r>
   </si>
+  <si/>
   <si>
     <r>
       <rPr>
@@ -367,7 +368,7 @@
         <rFont val="Microsoft Sans Serif"/>
         <sz val="9.5"/>
       </rPr>
-      <t>Тарификация за массу регистируемого мелкого пакета осуществляется с точностью до десятков граммов. Любое количество граммов округляется до десятков граммов в большую сторону</t>
+      <t>Тарификация за массу регистрируемого мелкого пакета осуществляется с точностью до десятков граммов. Любое количество граммов округляется до десятков граммов в большую сторону</t>
     </r>
   </si>
   <si>
@@ -845,7 +846,7 @@
         <rFont val="Microsoft Sans Serif"/>
         <sz val="9.5"/>
       </rPr>
-      <t>Отправления с наложенным платежем в адрес юридических лиц не принимаются.</t>
+      <t>Отправления с наложенным платежом в адрес юридических лиц не принимаются.</t>
     </r>
   </si>
   <si>
@@ -1126,7 +1127,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1160,40 +1161,46 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="10" vertical="top" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="6" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="6" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
@@ -1217,6 +1224,15 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="7" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
@@ -1231,9 +1247,6 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="left" indent="3" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="left" indent="3" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="left" indent="3" shrinkToFit="true" vertical="center"/>
@@ -1456,7 +1469,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -1524,14 +1537,14 @@
       <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="11" t="s"/>
+      <c r="E6" s="12" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="7">
-      <c r="A7" s="12" t="n"/>
-      <c r="B7" s="13" t="n">
+      <c r="A7" s="13" t="n"/>
+      <c r="B7" s="14" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1540,30 +1553,30 @@
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="8">
-      <c r="A8" s="15" t="n">
+      <c r="A8" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E8" s="17" t="n">
-        <v>2.05</v>
+      <c r="D8" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="18" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="9">
-      <c r="A9" s="12" t="n"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="13" t="n"/>
+      <c r="B9" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1572,163 +1585,163 @@
       <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="10">
-      <c r="A10" s="15" t="n">
+      <c r="A10" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="12" t="n"/>
+      <c r="B10" s="13" t="n"/>
       <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="17" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="E10" s="17" t="n">
-        <v>2.45</v>
+      <c r="D10" s="18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="11">
-      <c r="A11" s="15" t="n">
+      <c r="A11" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="12" t="n"/>
+      <c r="B11" s="13" t="n"/>
       <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E11" s="17" t="n">
-        <v>3.3</v>
+      <c r="D11" s="18" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="12">
-      <c r="A12" s="15" t="n">
+      <c r="A12" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="12" t="n"/>
+      <c r="B12" s="13" t="n"/>
       <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="E12" s="17" t="n">
-        <v>4.55</v>
+      <c r="D12" s="18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E12" s="18" t="n">
+        <v>5.35</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="13">
-      <c r="A13" s="15" t="n">
+      <c r="A13" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="12" t="n"/>
+      <c r="B13" s="13" t="n"/>
       <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="17" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E13" s="17" t="n">
-        <v>9.4</v>
+      <c r="D13" s="18" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <v>10.35</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="14">
-      <c r="A14" s="15" t="n">
+      <c r="A14" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B14" s="12" t="n"/>
+      <c r="B14" s="13" t="n"/>
       <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="17" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E14" s="17" t="n">
-        <v>16.25</v>
+      <c r="D14" s="18" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="E14" s="18" t="n">
+        <v>17.9</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="15">
-      <c r="A15" s="15" t="n">
+      <c r="A15" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="12" t="n"/>
+      <c r="B15" s="13" t="n"/>
       <c r="C15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="17" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E15" s="17" t="n">
-        <v>30.5</v>
+      <c r="D15" s="18" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <v>33.55</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="16">
-      <c r="A16" s="15" t="n">
+      <c r="A16" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="B16" s="12" t="n"/>
+      <c r="B16" s="13" t="n"/>
       <c r="C16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="17" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="E16" s="17" t="n">
-        <v>57.95</v>
+      <c r="D16" s="18" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="E16" s="18" t="n">
+        <v>64.45</v>
       </c>
     </row>
     <row customHeight="true" ht="27" outlineLevel="0" r="17">
-      <c r="A17" s="18" t="n"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="19" t="n"/>
+      <c r="B17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="18">
-      <c r="A18" s="15" t="n">
+      <c r="A18" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="B18" s="12" t="n"/>
+      <c r="B18" s="13" t="n"/>
       <c r="C18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E18" s="17" t="n">
-        <v>4.6</v>
+      <c r="D18" s="18" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E18" s="18" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="19">
-      <c r="A19" s="15" t="n">
+      <c r="A19" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="B19" s="12" t="n"/>
+      <c r="B19" s="13" t="n"/>
       <c r="C19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="17" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="E19" s="17" t="n">
-        <v>23.95</v>
+      <c r="D19" s="18" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <v>27.25</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="20">
-      <c r="A20" s="12" t="n"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="13" t="n"/>
+      <c r="B20" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -1737,332 +1750,335 @@
       <c r="D20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="21">
-      <c r="A21" s="15" t="n">
+      <c r="A21" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="12" t="n"/>
+      <c r="B21" s="13" t="n"/>
       <c r="C21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="17" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="E21" s="17" t="n">
-        <v>5.8</v>
+      <c r="D21" s="18" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E21" s="18" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="22">
-      <c r="A22" s="15" t="n">
+      <c r="A22" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="12" t="n"/>
+      <c r="B22" s="13" t="n"/>
       <c r="C22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="17" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="E22" s="17" t="n">
-        <v>58.3</v>
+      <c r="D22" s="18" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="E22" s="18" t="n">
+        <v>61.2</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="23">
-      <c r="A23" s="12" t="n"/>
-      <c r="B23" s="16" t="s">
-        <v>29</v>
+      <c r="A23" s="13" t="n"/>
+      <c r="B23" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="24">
-      <c r="A24" s="15" t="n">
+      <c r="A24" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="B24" s="12" t="n"/>
+      <c r="B24" s="13" t="n"/>
       <c r="C24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="17" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="E24" s="17" t="n">
-        <v>5.85</v>
+      <c r="D24" s="18" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="E24" s="18" t="n">
+        <v>6.15</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="25">
-      <c r="A25" s="15" t="n">
+      <c r="A25" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="B25" s="12" t="n"/>
+      <c r="B25" s="13" t="n"/>
       <c r="C25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="17" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="E25" s="17" t="n">
-        <v>42.4</v>
+      <c r="D25" s="18" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="E25" s="18" t="n">
+        <v>44.5</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="26">
-      <c r="A26" s="12" t="n"/>
-      <c r="B26" s="16" t="s">
-        <v>31</v>
+      <c r="A26" s="13" t="n"/>
+      <c r="B26" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="27">
-      <c r="A27" s="15" t="n">
+      <c r="A27" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="B27" s="12" t="n"/>
+      <c r="B27" s="13" t="n"/>
       <c r="C27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E27" s="17" t="n">
-        <v>4.4</v>
+      <c r="D27" s="18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E27" s="18" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="28">
-      <c r="A28" s="15" t="n">
+      <c r="A28" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="B28" s="12" t="n"/>
+      <c r="B28" s="13" t="n"/>
       <c r="C28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="17" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="E28" s="17" t="n">
-        <v>42.4</v>
+      <c r="D28" s="18" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="E28" s="18" t="n">
+        <v>44.5</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="29">
-      <c r="A29" s="12" t="n"/>
-      <c r="B29" s="16" t="s">
-        <v>33</v>
+      <c r="A29" s="13" t="n"/>
+      <c r="B29" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="30">
-      <c r="A30" s="15" t="n">
+      <c r="A30" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="B30" s="12" t="n"/>
+      <c r="B30" s="13" t="n"/>
       <c r="C30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="17" t="n">
+      <c r="D30" s="18" t="n">
         <v>12.05</v>
       </c>
-      <c r="E30" s="17" t="n">
+      <c r="E30" s="18" t="n">
         <v>12.05</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="31">
-      <c r="A31" s="15" t="n">
+      <c r="A31" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="B31" s="12" t="n"/>
+      <c r="B31" s="13" t="n"/>
       <c r="C31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="17" t="n">
+      <c r="D31" s="18" t="n">
         <v>53.65</v>
       </c>
-      <c r="E31" s="17" t="n">
+      <c r="E31" s="18" t="n">
         <v>58.3</v>
       </c>
     </row>
     <row customHeight="true" ht="30.5" outlineLevel="0" r="32">
-      <c r="A32" s="20" t="n">
+      <c r="A32" s="21" t="n">
         <v>19</v>
       </c>
-      <c r="B32" s="18" t="n"/>
+      <c r="B32" s="19" t="n"/>
       <c r="C32" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="21" t="s"/>
-      <c r="E32" s="11" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="D32" s="22" t="s"/>
+      <c r="E32" s="23" t="s"/>
     </row>
     <row customHeight="true" ht="40.5" outlineLevel="0" r="33">
-      <c r="A33" s="20" t="n">
+      <c r="A33" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="B33" s="22" t="n"/>
+      <c r="B33" s="24" t="n"/>
       <c r="C33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="21" t="s"/>
-      <c r="E33" s="11" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="D33" s="22" t="s"/>
+      <c r="E33" s="23" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="34">
-      <c r="A34" s="12" t="n"/>
-      <c r="B34" s="13" t="n">
+      <c r="A34" s="13" t="n"/>
+      <c r="B34" s="14" t="n">
         <v>2</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="12" t="n"/>
-      <c r="E34" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="13" t="n"/>
+      <c r="E34" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="35">
-      <c r="A35" s="15" t="n">
+      <c r="A35" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>38</v>
+      <c r="B35" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="12" t="n"/>
-      <c r="E35" s="17" t="n">
-        <v>6.85</v>
+        <v>40</v>
+      </c>
+      <c r="D35" s="13" t="n"/>
+      <c r="E35" s="18" t="n">
+        <v>7.3</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="36">
-      <c r="A36" s="12" t="n"/>
-      <c r="B36" s="16" t="s">
-        <v>40</v>
+      <c r="A36" s="13" t="n"/>
+      <c r="B36" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="12" t="n"/>
-      <c r="E36" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="13" t="n"/>
+      <c r="E36" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="27" outlineLevel="0" r="37">
-      <c r="A37" s="15" t="n">
+      <c r="A37" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="B37" s="18" t="n"/>
-      <c r="C37" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="23" t="s"/>
-      <c r="E37" s="24" t="s"/>
+      <c r="B37" s="19" t="n"/>
+      <c r="C37" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="25" t="s"/>
+      <c r="E37" s="26" t="s"/>
     </row>
     <row customHeight="true" ht="27" outlineLevel="0" r="38">
-      <c r="A38" s="15" t="n">
+      <c r="A38" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="B38" s="18" t="n"/>
-      <c r="C38" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="17" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E38" s="25" t="s"/>
+      <c r="B38" s="19" t="n"/>
+      <c r="C38" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="18" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E38" s="27" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="39">
-      <c r="A39" s="12" t="n"/>
-      <c r="B39" s="13" t="n">
+      <c r="A39" s="13" t="n"/>
+      <c r="B39" s="14" t="n">
         <v>3</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="40">
-      <c r="A40" s="15" t="n">
+      <c r="A40" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="18" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E40" s="18" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="41">
+      <c r="A41" s="13" t="n"/>
+      <c r="B41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="17" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="E40" s="17" t="n">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="41">
-      <c r="A41" s="12" t="n"/>
-      <c r="B41" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="38" outlineLevel="0" r="42">
-      <c r="A42" s="20" t="n">
+      <c r="A42" s="21" t="n">
         <v>25</v>
       </c>
-      <c r="B42" s="18" t="n"/>
+      <c r="B42" s="19" t="n"/>
       <c r="C42" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="21" t="s"/>
-      <c r="E42" s="11" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="D42" s="22" t="s"/>
+      <c r="E42" s="23" t="s"/>
     </row>
     <row customHeight="true" ht="27" outlineLevel="0" r="43">
-      <c r="A43" s="15" t="n">
+      <c r="A43" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="B43" s="18" t="n"/>
-      <c r="C43" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="17" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="E43" s="25" t="s"/>
+      <c r="B43" s="19" t="n"/>
+      <c r="C43" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="18" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="E43" s="27" t="s"/>
     </row>
     <row customHeight="true" ht="26.25" outlineLevel="0" r="44">
       <c r="A44" s="8" t="s">
@@ -2077,374 +2093,374 @@
       <c r="D44" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="11" t="s"/>
+      <c r="E44" s="23" t="s"/>
     </row>
     <row customHeight="true" ht="27" outlineLevel="0" r="45">
-      <c r="A45" s="18" t="n"/>
-      <c r="B45" s="26" t="n">
+      <c r="A45" s="19" t="n"/>
+      <c r="B45" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="C45" s="27" t="s">
-        <v>52</v>
+      <c r="C45" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="35" outlineLevel="0" r="46">
-      <c r="A46" s="20" t="n">
+      <c r="A46" s="21" t="n">
         <v>27</v>
       </c>
-      <c r="B46" s="18" t="n"/>
+      <c r="B46" s="19" t="n"/>
       <c r="C46" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="21" t="s"/>
-      <c r="E46" s="11" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="D46" s="22" t="s"/>
+      <c r="E46" s="23" t="s"/>
     </row>
     <row customHeight="true" ht="29" outlineLevel="0" r="47">
-      <c r="A47" s="15" t="n">
+      <c r="A47" s="16" t="n">
         <v>28</v>
       </c>
-      <c r="B47" s="18" t="n"/>
+      <c r="B47" s="19" t="n"/>
       <c r="C47" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="17" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E47" s="25" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="D47" s="18" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="E47" s="27" t="s"/>
     </row>
     <row customHeight="true" ht="46.75" outlineLevel="0" r="48">
-      <c r="A48" s="15" t="n">
+      <c r="A48" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="B48" s="22" t="n"/>
-      <c r="C48" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="28" t="n">
+      <c r="B48" s="24" t="n"/>
+      <c r="C48" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="30" t="n">
         <v>0.03</v>
       </c>
-      <c r="E48" s="29" t="s"/>
+      <c r="E48" s="31" t="s"/>
     </row>
     <row customHeight="true" ht="33.25" outlineLevel="0" r="49">
-      <c r="A49" s="20" t="n">
+      <c r="A49" s="21" t="n">
         <v>30</v>
       </c>
-      <c r="B49" s="18" t="n"/>
+      <c r="B49" s="19" t="n"/>
       <c r="C49" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="21" t="s"/>
-      <c r="E49" s="11" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="D49" s="22" t="s"/>
+      <c r="E49" s="23" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="50">
-      <c r="A50" s="12" t="n"/>
-      <c r="B50" s="26" t="n">
+      <c r="A50" s="13" t="n"/>
+      <c r="B50" s="28" t="n">
         <v>5</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="51">
-      <c r="A51" s="15" t="n">
+      <c r="A51" s="16" t="n">
         <v>31</v>
       </c>
-      <c r="B51" s="12" t="n"/>
+      <c r="B51" s="13" t="n"/>
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="17" t="n">
-        <v>0.25</v>
+      <c r="D51" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="18" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="52">
-      <c r="A52" s="15" t="n">
+      <c r="A52" s="16" t="n">
         <v>32</v>
       </c>
-      <c r="B52" s="12" t="n"/>
+      <c r="B52" s="13" t="n"/>
       <c r="C52" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="17" t="n">
-        <v>0.7</v>
+      <c r="D52" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="18" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="53">
-      <c r="A53" s="15" t="n">
+      <c r="A53" s="16" t="n">
         <v>33</v>
       </c>
-      <c r="B53" s="12" t="n"/>
+      <c r="B53" s="13" t="n"/>
       <c r="C53" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="17" t="n">
-        <v>1.4</v>
+      <c r="D53" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="18" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="54">
-      <c r="A54" s="15" t="n">
+      <c r="A54" s="16" t="n">
         <v>34</v>
       </c>
-      <c r="B54" s="12" t="n"/>
+      <c r="B54" s="13" t="n"/>
       <c r="C54" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="17" t="n">
-        <v>3.55</v>
+      <c r="D54" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="18" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="55">
-      <c r="A55" s="15" t="n">
+      <c r="A55" s="16" t="n">
         <v>35</v>
       </c>
-      <c r="B55" s="12" t="n"/>
+      <c r="B55" s="13" t="n"/>
       <c r="C55" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55" s="17" t="n">
-        <v>7</v>
+      <c r="D55" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="18" t="n">
+        <v>7.35</v>
       </c>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="56">
-      <c r="A56" s="15" t="n">
+      <c r="A56" s="16" t="n">
         <v>36</v>
       </c>
-      <c r="B56" s="12" t="n"/>
+      <c r="B56" s="13" t="n"/>
       <c r="C56" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E56" s="17" t="n">
-        <v>14.05</v>
+      <c r="D56" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="18" t="n">
+        <v>14.75</v>
       </c>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="57">
-      <c r="A57" s="15" t="n">
+      <c r="A57" s="16" t="n">
         <v>37</v>
       </c>
-      <c r="B57" s="12" t="n"/>
+      <c r="B57" s="13" t="n"/>
       <c r="C57" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E57" s="17" t="n">
-        <v>28.15</v>
+      <c r="D57" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="18" t="n">
+        <v>29.55</v>
       </c>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="58">
-      <c r="A58" s="15" t="n">
+      <c r="A58" s="16" t="n">
         <v>38</v>
       </c>
-      <c r="B58" s="12" t="n"/>
+      <c r="B58" s="13" t="n"/>
       <c r="C58" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E58" s="17" t="n">
-        <v>14.05</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="61.5" outlineLevel="0" r="59">
-      <c r="A59" s="20" t="n">
+      <c r="E58" s="18" t="n">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="46.477294921875" outlineLevel="0" r="59">
+      <c r="A59" s="21" t="n">
         <v>39</v>
       </c>
-      <c r="B59" s="22" t="n"/>
-      <c r="C59" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" s="21" t="s"/>
-      <c r="E59" s="11" t="s"/>
+      <c r="B59" s="24" t="n"/>
+      <c r="C59" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="33" t="s"/>
+      <c r="E59" s="34" t="s"/>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="60">
-      <c r="A60" s="15" t="n">
+      <c r="A60" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="B60" s="26" t="n">
+      <c r="B60" s="28" t="n">
         <v>6</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="12" t="n"/>
-      <c r="E60" s="17" t="n">
-        <v>2.05</v>
+        <v>62</v>
+      </c>
+      <c r="D60" s="13" t="n"/>
+      <c r="E60" s="18" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="61">
-      <c r="A61" s="12" t="n"/>
-      <c r="B61" s="26" t="n">
+      <c r="A61" s="13" t="n"/>
+      <c r="B61" s="28" t="n">
         <v>7</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="62">
-      <c r="A62" s="15" t="n">
+      <c r="A62" s="16" t="n">
         <v>41</v>
       </c>
-      <c r="B62" s="12" t="n"/>
+      <c r="B62" s="13" t="n"/>
       <c r="C62" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E62" s="17" t="n">
-        <v>2.05</v>
+        <v>64</v>
+      </c>
+      <c r="D62" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" s="18" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="63">
-      <c r="A63" s="12" t="n"/>
-      <c r="B63" s="26" t="n">
+      <c r="A63" s="13" t="n"/>
+      <c r="B63" s="28" t="n">
         <v>8</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="27" outlineLevel="0" r="64">
-      <c r="A64" s="15" t="n">
+      <c r="A64" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="B64" s="18" t="n"/>
-      <c r="C64" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="17" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E64" s="17" t="n">
-        <v>21.4</v>
+      <c r="B64" s="19" t="n"/>
+      <c r="C64" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="18" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="E64" s="18" t="n">
+        <v>22.45</v>
       </c>
     </row>
     <row customHeight="true" ht="32.75" outlineLevel="0" r="65">
-      <c r="A65" s="20" t="n">
+      <c r="A65" s="21" t="n">
         <v>43</v>
       </c>
-      <c r="B65" s="18" t="n"/>
+      <c r="B65" s="19" t="n"/>
       <c r="C65" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65" s="30" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E65" s="31" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="D65" s="35" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E65" s="36" t="s"/>
     </row>
     <row customHeight="true" ht="27" outlineLevel="0" r="66">
-      <c r="A66" s="15" t="n">
+      <c r="A66" s="16" t="n">
         <v>44</v>
       </c>
-      <c r="B66" s="18" t="n"/>
-      <c r="C66" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="17" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="E66" s="25" t="s"/>
+      <c r="B66" s="19" t="n"/>
+      <c r="C66" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="18" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="E66" s="27" t="s"/>
     </row>
     <row customHeight="true" ht="14.5" outlineLevel="0" r="67">
-      <c r="A67" s="12" t="n"/>
-      <c r="B67" s="26" t="n">
+      <c r="A67" s="13" t="n"/>
+      <c r="B67" s="28" t="n">
         <v>9</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="32" t="s"/>
-      <c r="E67" s="33" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="D67" s="37" t="s"/>
+      <c r="E67" s="38" t="s"/>
     </row>
     <row customHeight="true" ht="38.5" outlineLevel="0" r="68">
-      <c r="A68" s="20" t="n">
+      <c r="A68" s="21" t="n">
         <v>45</v>
       </c>
-      <c r="B68" s="22" t="n"/>
+      <c r="B68" s="24" t="n"/>
       <c r="C68" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="11" t="s"/>
-      <c r="E68" s="28" t="n">
+        <v>70</v>
+      </c>
+      <c r="D68" s="23" t="s"/>
+      <c r="E68" s="30" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row customHeight="true" ht="27" outlineLevel="0" r="69">
-      <c r="A69" s="15" t="n">
+      <c r="A69" s="16" t="n">
         <v>46</v>
       </c>
-      <c r="B69" s="18" t="n"/>
-      <c r="C69" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="24" t="s"/>
-      <c r="E69" s="17" t="n">
+      <c r="B69" s="19" t="n"/>
+      <c r="C69" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="26" t="s"/>
+      <c r="E69" s="18" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row customHeight="true" ht="16.75" outlineLevel="0" r="70">
-      <c r="A70" s="12" t="n"/>
-      <c r="B70" s="12" t="n"/>
+      <c r="A70" s="13" t="n"/>
+      <c r="B70" s="13" t="n"/>
       <c r="C70" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" s="32" t="s"/>
-      <c r="E70" s="33" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="D70" s="37" t="s"/>
+      <c r="E70" s="38" t="s"/>
     </row>
     <row customHeight="true" ht="59.25" outlineLevel="0" r="71">
-      <c r="A71" s="20" t="n">
+      <c r="A71" s="21" t="n">
         <v>47</v>
       </c>
-      <c r="B71" s="22" t="n"/>
+      <c r="B71" s="24" t="n"/>
       <c r="C71" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="21" t="s"/>
-      <c r="E71" s="11" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="D71" s="22" t="s"/>
+      <c r="E71" s="23" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2505,213 +2521,213 @@
       <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11" t="s"/>
+      <c r="E1" s="12" t="s"/>
     </row>
     <row customHeight="true" ht="27.75" outlineLevel="0" r="2">
-      <c r="A2" s="18" t="n"/>
-      <c r="B2" s="26" t="n">
+      <c r="A2" s="19" t="n"/>
+      <c r="B2" s="28" t="n">
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="32" t="s"/>
-      <c r="E2" s="33" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="D2" s="37" t="s"/>
+      <c r="E2" s="38" t="s"/>
     </row>
     <row customHeight="true" ht="36.25" outlineLevel="0" r="3">
-      <c r="A3" s="20" t="n">
+      <c r="A3" s="21" t="n">
         <v>48</v>
       </c>
-      <c r="B3" s="18" t="n"/>
+      <c r="B3" s="19" t="n"/>
       <c r="C3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="11" t="s"/>
-      <c r="E3" s="34" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3" s="23" t="s"/>
+      <c r="E3" s="39" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row customHeight="true" ht="29" outlineLevel="0" r="4">
-      <c r="A4" s="18" t="n"/>
-      <c r="B4" s="18" t="n"/>
+      <c r="A4" s="19" t="n"/>
+      <c r="B4" s="19" t="n"/>
       <c r="C4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="21" t="s"/>
-      <c r="E4" s="11" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="D4" s="22" t="s"/>
+      <c r="E4" s="23" t="s"/>
     </row>
     <row customHeight="true" ht="29" outlineLevel="0" r="5">
-      <c r="A5" s="15" t="n">
+      <c r="A5" s="16" t="n">
         <v>49</v>
       </c>
-      <c r="B5" s="18" t="n"/>
+      <c r="B5" s="19" t="n"/>
       <c r="C5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="21" t="s"/>
-      <c r="E5" s="11" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="D5" s="22" t="s"/>
+      <c r="E5" s="23" t="s"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="12" t="n"/>
-      <c r="B6" s="26" t="n">
+      <c r="A6" s="13" t="n"/>
+      <c r="B6" s="28" t="n">
         <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="32" t="s"/>
-      <c r="E6" s="33" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="D6" s="37" t="s"/>
+      <c r="E6" s="38" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="7">
-      <c r="A7" s="15" t="n">
+      <c r="A7" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="B7" s="12" t="n"/>
+      <c r="B7" s="13" t="n"/>
       <c r="C7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="11" t="s"/>
-      <c r="E7" s="35" t="n">
-        <v>5.05</v>
+        <v>79</v>
+      </c>
+      <c r="D7" s="23" t="s"/>
+      <c r="E7" s="40" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row customHeight="true" ht="27" outlineLevel="0" r="8">
-      <c r="A8" s="15" t="n">
+      <c r="A8" s="16" t="n">
         <v>51</v>
       </c>
-      <c r="B8" s="18" t="n"/>
-      <c r="C8" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="24" t="s"/>
-      <c r="E8" s="35" t="n">
-        <v>0.85</v>
+      <c r="B8" s="19" t="n"/>
+      <c r="C8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="26" t="s"/>
+      <c r="E8" s="40" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row customHeight="true" ht="50.25" outlineLevel="0" r="9">
-      <c r="A9" s="15" t="n">
+      <c r="A9" s="16" t="n">
         <v>52</v>
       </c>
-      <c r="B9" s="22" t="n"/>
+      <c r="B9" s="24" t="n"/>
       <c r="C9" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="21" t="s"/>
-      <c r="E9" s="11" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="D9" s="22" t="s"/>
+      <c r="E9" s="23" t="s"/>
     </row>
     <row customHeight="true" ht="38.5" outlineLevel="0" r="10">
-      <c r="A10" s="20" t="n">
+      <c r="A10" s="21" t="n">
         <v>53</v>
       </c>
-      <c r="B10" s="22" t="n"/>
+      <c r="B10" s="24" t="n"/>
       <c r="C10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="11" t="s"/>
-      <c r="E10" s="36" t="n">
-        <v>3.35</v>
+        <v>82</v>
+      </c>
+      <c r="D10" s="23" t="s"/>
+      <c r="E10" s="40" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row customHeight="true" ht="35.75" outlineLevel="0" r="11">
-      <c r="A11" s="20" t="n">
+      <c r="A11" s="21" t="n">
         <v>54</v>
       </c>
-      <c r="B11" s="18" t="n"/>
-      <c r="C11" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="24" t="s"/>
-      <c r="E11" s="36" t="n">
-        <v>7.45</v>
+      <c r="B11" s="19" t="n"/>
+      <c r="C11" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="26" t="s"/>
+      <c r="E11" s="40" t="n">
+        <v>8.2</v>
       </c>
     </row>
     <row customHeight="true" ht="77.5" outlineLevel="0" r="12">
-      <c r="A12" s="20" t="n">
+      <c r="A12" s="21" t="n">
         <v>55</v>
       </c>
-      <c r="B12" s="22" t="n"/>
+      <c r="B12" s="24" t="n"/>
       <c r="C12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="11" t="s"/>
-      <c r="E12" s="36" t="n">
-        <v>0.33</v>
+        <v>84</v>
+      </c>
+      <c r="D12" s="23" t="s"/>
+      <c r="E12" s="40" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row customHeight="true" ht="45.25" outlineLevel="0" r="13">
-      <c r="A13" s="20" t="n">
+      <c r="A13" s="21" t="n">
         <v>56</v>
       </c>
-      <c r="B13" s="22" t="n"/>
+      <c r="B13" s="24" t="n"/>
       <c r="C13" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="11" t="s"/>
-      <c r="E13" s="36" t="n">
+        <v>85</v>
+      </c>
+      <c r="D13" s="23" t="s"/>
+      <c r="E13" s="40" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row customHeight="true" ht="50.25" outlineLevel="0" r="14">
-      <c r="A14" s="15" t="n">
+      <c r="A14" s="16" t="n">
         <v>57</v>
       </c>
-      <c r="B14" s="22" t="n"/>
+      <c r="B14" s="24" t="n"/>
       <c r="C14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="21" t="s"/>
-      <c r="E14" s="11" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="D14" s="22" t="s"/>
+      <c r="E14" s="23" t="s"/>
     </row>
     <row customHeight="true" ht="29.25" outlineLevel="0" r="15">
-      <c r="A15" s="18" t="n"/>
-      <c r="B15" s="26" t="n">
+      <c r="A15" s="19" t="n"/>
+      <c r="B15" s="28" t="n">
         <v>12</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="33" t="s"/>
-      <c r="E15" s="35" t="n">
-        <v>2.1</v>
+        <v>87</v>
+      </c>
+      <c r="D15" s="38" t="s"/>
+      <c r="E15" s="40" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row customHeight="true" ht="74.75" outlineLevel="0" r="16">
-      <c r="A16" s="20" t="n">
+      <c r="A16" s="21" t="n">
         <v>58</v>
       </c>
-      <c r="B16" s="22" t="n"/>
-      <c r="C16" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="24" t="s"/>
-      <c r="E16" s="36" t="n">
-        <v>5.85</v>
+      <c r="B16" s="24" t="n"/>
+      <c r="C16" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="26" t="s"/>
+      <c r="E16" s="40" t="n">
+        <v>6.15</v>
       </c>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="17">
-      <c r="A17" s="12" t="n"/>
-      <c r="B17" s="26" t="n">
+      <c r="A17" s="13" t="n"/>
+      <c r="B17" s="28" t="n">
         <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="32" t="s"/>
-      <c r="E17" s="33" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="D17" s="37" t="s"/>
+      <c r="E17" s="38" t="s"/>
     </row>
     <row customHeight="true" ht="38" outlineLevel="0" r="18">
-      <c r="A18" s="20" t="n">
+      <c r="A18" s="21" t="n">
         <v>59</v>
       </c>
-      <c r="B18" s="18" t="n"/>
+      <c r="B18" s="19" t="n"/>
       <c r="C18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="21" t="s"/>
-      <c r="E18" s="11" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="D18" s="22" t="s"/>
+      <c r="E18" s="23" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="18">

--- a/calc/files/letter_int.xlsx
+++ b/calc/files/letter_int.xlsx
@@ -295,7 +295,6 @@
       <t>Простые мелкие пакеты в Австралию</t>
     </r>
   </si>
-  <si/>
   <si>
     <r>
       <rPr>
@@ -334,6 +333,7 @@
       <t>Простые мелкие пакеты в Мексику</t>
     </r>
   </si>
+  <si/>
   <si>
     <r>
       <rPr>
@@ -1007,7 +1007,9 @@
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
     <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1001"/>
     <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="0.0000000" formatCode="0.0000000" numFmtId="1004"/>
+    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1005"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1127,7 +1129,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1140,6 +1142,9 @@
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="right" indent="6" vertical="top" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" shrinkToFit="false" vertical="top" wrapText="false"/>
+    </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="3" vertical="top" wrapText="true"/>
     </xf>
@@ -1185,12 +1190,27 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
@@ -1218,10 +1238,10 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1005" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="7" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="7" numFmtId="1005" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
@@ -1245,7 +1265,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1005" quotePrefix="false">
       <alignment horizontal="left" indent="3" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
@@ -1469,7 +1489,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -1480,6 +1500,7 @@
     <col customWidth="true" max="3" min="3" outlineLevel="0" width="56.9598448543115"/>
     <col customWidth="true" max="4" min="4" outlineLevel="0" width="16.1616159565662"/>
     <col customWidth="true" max="5" min="5" outlineLevel="0" width="14.7819669527098"/>
+    <col customWidth="true" max="6" min="6" outlineLevel="0" width="9.05147879155123"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="1">
@@ -1492,991 +1513,1001 @@
       <c r="E1" s="1" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s"/>
-      <c r="C2" s="3" t="s"/>
-      <c r="D2" s="3" t="s"/>
-      <c r="E2" s="3" t="s"/>
+      <c r="E2" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="18" outlineLevel="0" r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s"/>
-      <c r="C3" s="3" t="s"/>
-      <c r="D3" s="3" t="s"/>
-      <c r="E3" s="3" t="s"/>
+      <c r="E3" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="25.25" outlineLevel="0" r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s"/>
-      <c r="C4" s="4" t="s"/>
-      <c r="D4" s="4" t="s"/>
-      <c r="E4" s="4" t="s"/>
+      <c r="B4" s="5" t="s"/>
+      <c r="C4" s="5" t="s"/>
+      <c r="D4" s="5" t="s"/>
+      <c r="E4" s="5" t="s"/>
     </row>
     <row customHeight="true" ht="20.5" outlineLevel="0" r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s"/>
-      <c r="C5" s="6" t="s"/>
-      <c r="D5" s="6" t="s"/>
-      <c r="E5" s="7" t="s"/>
+      <c r="B5" s="7" t="s"/>
+      <c r="C5" s="7" t="s"/>
+      <c r="D5" s="7" t="s"/>
+      <c r="E5" s="8" t="s"/>
     </row>
     <row customHeight="true" ht="26.25" outlineLevel="0" r="6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="12" t="s"/>
+      <c r="E6" s="13" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="7">
-      <c r="A7" s="13" t="n"/>
-      <c r="B7" s="14" t="n">
+      <c r="A7" s="14" t="n"/>
+      <c r="B7" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="8">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="E8" s="19" t="n">
         <v>2.25</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="9">
-      <c r="A9" s="13" t="n"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="14" t="n"/>
+      <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="10">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="D10" s="19" t="n">
         <v>2.25</v>
       </c>
-      <c r="E10" s="18" t="n">
+      <c r="E10" s="19" t="n">
         <v>2.7</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="11">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="19" t="n">
         <v>2.85</v>
       </c>
-      <c r="E11" s="18" t="n">
+      <c r="E11" s="19" t="n">
         <v>3.8</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="12">
-      <c r="A12" s="16" t="n">
+      <c r="A12" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="13" t="n"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="14" t="n"/>
+      <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="18" t="n">
+      <c r="D12" s="19" t="n">
         <v>3.9</v>
       </c>
-      <c r="E12" s="18" t="n">
+      <c r="E12" s="19" t="n">
         <v>5.35</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="13">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="13" t="n"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="14" t="n"/>
+      <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="18" t="n">
+      <c r="D13" s="19" t="n">
         <v>7.45</v>
       </c>
-      <c r="E13" s="18" t="n">
+      <c r="E13" s="19" t="n">
         <v>10.35</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="14">
-      <c r="A14" s="16" t="n">
+      <c r="A14" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B14" s="13" t="n"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="14" t="n"/>
+      <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="D14" s="19" t="n">
         <v>11.45</v>
       </c>
-      <c r="E14" s="18" t="n">
+      <c r="E14" s="19" t="n">
         <v>17.9</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="15">
-      <c r="A15" s="16" t="n">
+      <c r="A15" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="13" t="n"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="14" t="n"/>
+      <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D15" s="19" t="n">
         <v>21.55</v>
       </c>
-      <c r="E15" s="18" t="n">
+      <c r="E15" s="19" t="n">
         <v>33.55</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="16">
-      <c r="A16" s="16" t="n">
+      <c r="A16" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B16" s="13" t="n"/>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="14" t="n"/>
+      <c r="C16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="18" t="n">
+      <c r="D16" s="19" t="n">
         <v>42.4</v>
       </c>
-      <c r="E16" s="18" t="n">
+      <c r="E16" s="19" t="n">
         <v>64.45</v>
       </c>
+      <c r="F16" s="20" t="n"/>
+      <c r="G16" s="20" t="n"/>
+      <c r="H16" s="20" t="n"/>
     </row>
     <row customHeight="true" ht="27" outlineLevel="0" r="17">
-      <c r="A17" s="19" t="n"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="21" t="n"/>
+      <c r="B17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="F17" s="23" t="n"/>
+      <c r="G17" s="20" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="18">
-      <c r="A18" s="16" t="n">
+      <c r="A18" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B18" s="13" t="n"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="18" t="n">
+      <c r="D18" s="19" t="n">
         <v>4.85</v>
       </c>
-      <c r="E18" s="18" t="n">
+      <c r="E18" s="19" t="n">
         <v>5.5</v>
       </c>
+      <c r="F18" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="19">
-      <c r="A19" s="16" t="n">
+      <c r="A19" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="18" t="n">
+      <c r="D19" s="19" t="n">
         <v>16.35</v>
       </c>
-      <c r="E19" s="18" t="n">
+      <c r="E19" s="19" t="n">
         <v>27.25</v>
       </c>
+      <c r="F19" s="23" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="20">
-      <c r="A20" s="13" t="n"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="14" t="n"/>
+      <c r="B20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="F20" s="23" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="21">
-      <c r="A21" s="16" t="n">
+      <c r="A21" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="13" t="n"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="14" t="n"/>
+      <c r="C21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="18" t="n">
+      <c r="D21" s="19" t="n">
         <v>6.1</v>
       </c>
-      <c r="E21" s="18" t="n">
+      <c r="E21" s="19" t="n">
         <v>6.1</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="25" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="22">
+      <c r="A22" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="19" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="E22" s="19" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="F22" s="25" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="23">
+      <c r="A23" s="14" t="n"/>
+      <c r="B23" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="22">
-      <c r="A22" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="B22" s="13" t="n"/>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="25" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="24">
+      <c r="A24" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="B24" s="14" t="n"/>
+      <c r="C24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="19" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="E24" s="19" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="F24" s="25" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="25">
+      <c r="A25" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B25" s="14" t="n"/>
+      <c r="C25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="18" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="E22" s="18" t="n">
-        <v>61.2</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="23">
-      <c r="A23" s="13" t="n"/>
-      <c r="B23" s="17" t="s">
+      <c r="D25" s="19" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="E25" s="19" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="F25" s="25" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="26">
+      <c r="A26" s="14" t="n"/>
+      <c r="B26" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="27">
+      <c r="A27" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B27" s="14" t="n"/>
+      <c r="C27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E27" s="19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="28">
+      <c r="A28" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B28" s="14" t="n"/>
+      <c r="C28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="19" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="E28" s="19" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="F28" s="20" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="29">
+      <c r="A29" s="14" t="n"/>
+      <c r="B29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="20" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="30">
+      <c r="A30" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B30" s="14" t="n"/>
+      <c r="C30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="19" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E30" s="19" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F30" s="20" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="31">
+      <c r="A31" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="B31" s="14" t="n"/>
+      <c r="C31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="19" t="n">
+        <v>53.65</v>
+      </c>
+      <c r="E31" s="19" t="n">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="30.5" outlineLevel="0" r="32">
+      <c r="A32" s="27" t="n">
+        <v>19</v>
+      </c>
+      <c r="B32" s="21" t="n"/>
+      <c r="C32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="28" t="s"/>
+      <c r="E32" s="29" t="s"/>
+      <c r="F32" s="20" t="n"/>
+    </row>
+    <row customHeight="true" ht="40.5" outlineLevel="0" r="33">
+      <c r="A33" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="B33" s="30" t="n"/>
+      <c r="C33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="28" t="s"/>
+      <c r="E33" s="29" t="s"/>
+      <c r="F33" s="20" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="34">
+      <c r="A34" s="14" t="n"/>
+      <c r="B34" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="14" t="n"/>
+      <c r="E34" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="20" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="35">
+      <c r="A35" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="14" t="n"/>
+      <c r="E35" s="19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F35" s="20" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="36">
+      <c r="A36" s="14" t="n"/>
+      <c r="B36" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="14" t="n"/>
+      <c r="E36" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="27" outlineLevel="0" r="37">
+      <c r="A37" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="B37" s="21" t="n"/>
+      <c r="C37" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="31" t="s"/>
+      <c r="E37" s="32" t="s"/>
+    </row>
+    <row customHeight="true" ht="27" outlineLevel="0" r="38">
+      <c r="A38" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="B38" s="21" t="n"/>
+      <c r="C38" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="19" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E38" s="33" t="s"/>
+      <c r="F38" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="39">
+      <c r="A39" s="14" t="n"/>
+      <c r="B39" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="40">
+      <c r="A40" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="19" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E40" s="19" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="41">
+      <c r="A41" s="14" t="n"/>
+      <c r="B41" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="38" outlineLevel="0" r="42">
+      <c r="A42" s="27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B42" s="21" t="n"/>
+      <c r="C42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="28" t="s"/>
+      <c r="E42" s="29" t="s"/>
+    </row>
+    <row customHeight="true" ht="27" outlineLevel="0" r="43">
+      <c r="A43" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="B43" s="21" t="n"/>
+      <c r="C43" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="19" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="E43" s="33" t="s"/>
+    </row>
+    <row customHeight="true" ht="26.25" outlineLevel="0" r="44">
+      <c r="A44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="29" t="s"/>
+    </row>
+    <row customHeight="true" ht="27" outlineLevel="0" r="45">
+      <c r="A45" s="21" t="n"/>
+      <c r="B45" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="35" outlineLevel="0" r="46">
+      <c r="A46" s="27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B46" s="21" t="n"/>
+      <c r="C46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="28" t="s"/>
+      <c r="E46" s="29" t="s"/>
+    </row>
+    <row customHeight="true" ht="29" outlineLevel="0" r="47">
+      <c r="A47" s="17" t="n">
+        <v>28</v>
+      </c>
+      <c r="B47" s="21" t="n"/>
+      <c r="C47" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="19" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="E47" s="33" t="s"/>
+    </row>
+    <row customHeight="true" ht="46.75" outlineLevel="0" r="48">
+      <c r="A48" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="B48" s="30" t="n"/>
+      <c r="C48" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="36" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E48" s="37" t="s"/>
+    </row>
+    <row customHeight="true" ht="33.25" outlineLevel="0" r="49">
+      <c r="A49" s="27" t="n">
         <v>30</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="B49" s="21" t="n"/>
+      <c r="C49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="28" t="s"/>
+      <c r="E49" s="29" t="s"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="50">
+      <c r="A50" s="14" t="n"/>
+      <c r="B50" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="51">
+      <c r="A51" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="B51" s="14" t="n"/>
+      <c r="C51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="19" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="52">
+      <c r="A52" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="B52" s="14" t="n"/>
+      <c r="C52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="19" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="53">
+      <c r="A53" s="17" t="n">
+        <v>33</v>
+      </c>
+      <c r="B53" s="14" t="n"/>
+      <c r="C53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="19" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="54">
+      <c r="A54" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="B54" s="14" t="n"/>
+      <c r="C54" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="19" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="55">
+      <c r="A55" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="B55" s="14" t="n"/>
+      <c r="C55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="19" t="n">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="56">
+      <c r="A56" s="17" t="n">
+        <v>36</v>
+      </c>
+      <c r="B56" s="14" t="n"/>
+      <c r="C56" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="19" t="n">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="57">
+      <c r="A57" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="B57" s="14" t="n"/>
+      <c r="C57" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="19" t="n">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="58">
+      <c r="A58" s="17" t="n">
+        <v>38</v>
+      </c>
+      <c r="B58" s="14" t="n"/>
+      <c r="C58" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="19" t="n">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="46.477294921875" outlineLevel="0" r="59">
+      <c r="A59" s="27" t="n">
+        <v>39</v>
+      </c>
+      <c r="B59" s="30" t="n"/>
+      <c r="C59" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="39" t="s"/>
+      <c r="E59" s="40" t="s"/>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="60">
+      <c r="A60" s="17" t="n">
+        <v>40</v>
+      </c>
+      <c r="B60" s="34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="14" t="n"/>
+      <c r="E60" s="19" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="61">
+      <c r="A61" s="14" t="n"/>
+      <c r="B61" s="34" t="n">
+        <v>7</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E61" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="24">
-      <c r="A24" s="16" t="n">
-        <v>13</v>
-      </c>
-      <c r="B24" s="13" t="n"/>
-      <c r="C24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="18" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="E24" s="18" t="n">
-        <v>6.15</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="25">
-      <c r="A25" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B25" s="13" t="n"/>
-      <c r="C25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="18" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="E25" s="18" t="n">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="26">
-      <c r="A26" s="13" t="n"/>
-      <c r="B26" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="8" t="s">
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="62">
+      <c r="A62" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="B62" s="14" t="n"/>
+      <c r="C62" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" s="19" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="63">
+      <c r="A63" s="14" t="n"/>
+      <c r="B63" s="34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E63" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="27">
-      <c r="A27" s="16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B27" s="13" t="n"/>
-      <c r="C27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="18" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E27" s="18" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="28">
-      <c r="A28" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="B28" s="13" t="n"/>
-      <c r="C28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="18" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="E28" s="18" t="n">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="29">
-      <c r="A29" s="13" t="n"/>
-      <c r="B29" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="30">
-      <c r="A30" s="16" t="n">
-        <v>17</v>
-      </c>
-      <c r="B30" s="13" t="n"/>
-      <c r="C30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="18" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E30" s="18" t="n">
-        <v>12.05</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="31">
-      <c r="A31" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="B31" s="13" t="n"/>
-      <c r="C31" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="18" t="n">
-        <v>53.65</v>
-      </c>
-      <c r="E31" s="18" t="n">
-        <v>58.3</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="30.5" outlineLevel="0" r="32">
-      <c r="A32" s="21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B32" s="19" t="n"/>
-      <c r="C32" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="22" t="s"/>
-      <c r="E32" s="23" t="s"/>
-    </row>
-    <row customHeight="true" ht="40.5" outlineLevel="0" r="33">
-      <c r="A33" s="21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B33" s="24" t="n"/>
-      <c r="C33" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="22" t="s"/>
-      <c r="E33" s="23" t="s"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="34">
-      <c r="A34" s="13" t="n"/>
-      <c r="B34" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="35">
-      <c r="A35" s="16" t="n">
-        <v>21</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="18" t="n">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="36">
-      <c r="A36" s="13" t="n"/>
-      <c r="B36" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="8" t="s">
+    <row customHeight="true" ht="27" outlineLevel="0" r="64">
+      <c r="A64" s="17" t="n">
         <v>42</v>
       </c>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="27" outlineLevel="0" r="37">
-      <c r="A37" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="B37" s="19" t="n"/>
-      <c r="C37" s="20" t="s">
+      <c r="B64" s="21" t="n"/>
+      <c r="C64" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="19" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="E64" s="19" t="n">
+        <v>22.45</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="32.75" outlineLevel="0" r="65">
+      <c r="A65" s="27" t="n">
         <v>43</v>
       </c>
-      <c r="D37" s="25" t="s"/>
-      <c r="E37" s="26" t="s"/>
-    </row>
-    <row customHeight="true" ht="27" outlineLevel="0" r="38">
-      <c r="A38" s="16" t="n">
-        <v>23</v>
-      </c>
-      <c r="B38" s="19" t="n"/>
-      <c r="C38" s="20" t="s">
+      <c r="B65" s="21" t="n"/>
+      <c r="C65" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="41" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E65" s="42" t="s"/>
+    </row>
+    <row customHeight="true" ht="27" outlineLevel="0" r="66">
+      <c r="A66" s="17" t="n">
         <v>44</v>
       </c>
-      <c r="D38" s="18" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="E38" s="27" t="s"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="39">
-      <c r="A39" s="13" t="n"/>
-      <c r="B39" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C39" s="9" t="s">
+      <c r="B66" s="21" t="n"/>
+      <c r="C66" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="19" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="E66" s="33" t="s"/>
+    </row>
+    <row customHeight="true" ht="14.5" outlineLevel="0" r="67">
+      <c r="A67" s="14" t="n"/>
+      <c r="B67" s="34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="43" t="s"/>
+      <c r="E67" s="44" t="s"/>
+    </row>
+    <row customHeight="true" ht="38.5" outlineLevel="0" r="68">
+      <c r="A68" s="27" t="n">
         <v>45</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="B68" s="30" t="n"/>
+      <c r="C68" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="29" t="s"/>
+      <c r="E68" s="36" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="27" outlineLevel="0" r="69">
+      <c r="A69" s="17" t="n">
         <v>46</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="40">
-      <c r="A40" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="B40" s="17" t="s">
+      <c r="B69" s="21" t="n"/>
+      <c r="C69" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="32" t="s"/>
+      <c r="E69" s="19" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="16.75" outlineLevel="0" r="70">
+      <c r="A70" s="14" t="n"/>
+      <c r="B70" s="14" t="n"/>
+      <c r="C70" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="43" t="s"/>
+      <c r="E70" s="44" t="s"/>
+    </row>
+    <row customHeight="true" ht="59.25" outlineLevel="0" r="71">
+      <c r="A71" s="27" t="n">
         <v>47</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="18" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E40" s="18" t="n">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="41">
-      <c r="A41" s="13" t="n"/>
-      <c r="B41" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="38" outlineLevel="0" r="42">
-      <c r="A42" s="21" t="n">
-        <v>25</v>
-      </c>
-      <c r="B42" s="19" t="n"/>
-      <c r="C42" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="22" t="s"/>
-      <c r="E42" s="23" t="s"/>
-    </row>
-    <row customHeight="true" ht="27" outlineLevel="0" r="43">
-      <c r="A43" s="16" t="n">
-        <v>26</v>
-      </c>
-      <c r="B43" s="19" t="n"/>
-      <c r="C43" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="18" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="E43" s="27" t="s"/>
-    </row>
-    <row customHeight="true" ht="26.25" outlineLevel="0" r="44">
-      <c r="A44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="23" t="s"/>
-    </row>
-    <row customHeight="true" ht="27" outlineLevel="0" r="45">
-      <c r="A45" s="19" t="n"/>
-      <c r="B45" s="28" t="n">
-        <v>4</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="35" outlineLevel="0" r="46">
-      <c r="A46" s="21" t="n">
-        <v>27</v>
-      </c>
-      <c r="B46" s="19" t="n"/>
-      <c r="C46" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="22" t="s"/>
-      <c r="E46" s="23" t="s"/>
-    </row>
-    <row customHeight="true" ht="29" outlineLevel="0" r="47">
-      <c r="A47" s="16" t="n">
-        <v>28</v>
-      </c>
-      <c r="B47" s="19" t="n"/>
-      <c r="C47" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="18" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="E47" s="27" t="s"/>
-    </row>
-    <row customHeight="true" ht="46.75" outlineLevel="0" r="48">
-      <c r="A48" s="16" t="n">
-        <v>29</v>
-      </c>
-      <c r="B48" s="24" t="n"/>
-      <c r="C48" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="30" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E48" s="31" t="s"/>
-    </row>
-    <row customHeight="true" ht="33.25" outlineLevel="0" r="49">
-      <c r="A49" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="B49" s="19" t="n"/>
-      <c r="C49" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="22" t="s"/>
-      <c r="E49" s="23" t="s"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="50">
-      <c r="A50" s="13" t="n"/>
-      <c r="B50" s="28" t="n">
-        <v>5</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="51">
-      <c r="A51" s="16" t="n">
-        <v>31</v>
-      </c>
-      <c r="B51" s="13" t="n"/>
-      <c r="C51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E51" s="18" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="52">
-      <c r="A52" s="16" t="n">
-        <v>32</v>
-      </c>
-      <c r="B52" s="13" t="n"/>
-      <c r="C52" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="18" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="53">
-      <c r="A53" s="16" t="n">
-        <v>33</v>
-      </c>
-      <c r="B53" s="13" t="n"/>
-      <c r="C53" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="18" t="n">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="54">
-      <c r="A54" s="16" t="n">
-        <v>34</v>
-      </c>
-      <c r="B54" s="13" t="n"/>
-      <c r="C54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="18" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="55">
-      <c r="A55" s="16" t="n">
-        <v>35</v>
-      </c>
-      <c r="B55" s="13" t="n"/>
-      <c r="C55" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="18" t="n">
-        <v>7.35</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="56">
-      <c r="A56" s="16" t="n">
-        <v>36</v>
-      </c>
-      <c r="B56" s="13" t="n"/>
-      <c r="C56" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56" s="18" t="n">
-        <v>14.75</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="57">
-      <c r="A57" s="16" t="n">
-        <v>37</v>
-      </c>
-      <c r="B57" s="13" t="n"/>
-      <c r="C57" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" s="18" t="n">
-        <v>29.55</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="58">
-      <c r="A58" s="16" t="n">
-        <v>38</v>
-      </c>
-      <c r="B58" s="13" t="n"/>
-      <c r="C58" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" s="18" t="n">
-        <v>14.75</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="46.477294921875" outlineLevel="0" r="59">
-      <c r="A59" s="21" t="n">
-        <v>39</v>
-      </c>
-      <c r="B59" s="24" t="n"/>
-      <c r="C59" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="33" t="s"/>
-      <c r="E59" s="34" t="s"/>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="60">
-      <c r="A60" s="16" t="n">
-        <v>40</v>
-      </c>
-      <c r="B60" s="28" t="n">
-        <v>6</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="18" t="n">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="61">
-      <c r="A61" s="13" t="n"/>
-      <c r="B61" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="62">
-      <c r="A62" s="16" t="n">
-        <v>41</v>
-      </c>
-      <c r="B62" s="13" t="n"/>
-      <c r="C62" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E62" s="18" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="63">
-      <c r="A63" s="13" t="n"/>
-      <c r="B63" s="28" t="n">
-        <v>8</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="27" outlineLevel="0" r="64">
-      <c r="A64" s="16" t="n">
-        <v>42</v>
-      </c>
-      <c r="B64" s="19" t="n"/>
-      <c r="C64" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="18" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="E64" s="18" t="n">
-        <v>22.45</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="32.75" outlineLevel="0" r="65">
-      <c r="A65" s="21" t="n">
-        <v>43</v>
-      </c>
-      <c r="B65" s="19" t="n"/>
-      <c r="C65" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="35" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="E65" s="36" t="s"/>
-    </row>
-    <row customHeight="true" ht="27" outlineLevel="0" r="66">
-      <c r="A66" s="16" t="n">
-        <v>44</v>
-      </c>
-      <c r="B66" s="19" t="n"/>
-      <c r="C66" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="18" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="E66" s="27" t="s"/>
-    </row>
-    <row customHeight="true" ht="14.5" outlineLevel="0" r="67">
-      <c r="A67" s="13" t="n"/>
-      <c r="B67" s="28" t="n">
-        <v>9</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="37" t="s"/>
-      <c r="E67" s="38" t="s"/>
-    </row>
-    <row customHeight="true" ht="38.5" outlineLevel="0" r="68">
-      <c r="A68" s="21" t="n">
-        <v>45</v>
-      </c>
-      <c r="B68" s="24" t="n"/>
-      <c r="C68" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" s="23" t="s"/>
-      <c r="E68" s="30" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="27" outlineLevel="0" r="69">
-      <c r="A69" s="16" t="n">
-        <v>46</v>
-      </c>
-      <c r="B69" s="19" t="n"/>
-      <c r="C69" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="26" t="s"/>
-      <c r="E69" s="18" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="16.75" outlineLevel="0" r="70">
-      <c r="A70" s="13" t="n"/>
-      <c r="B70" s="13" t="n"/>
-      <c r="C70" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" s="37" t="s"/>
-      <c r="E70" s="38" t="s"/>
-    </row>
-    <row customHeight="true" ht="59.25" outlineLevel="0" r="71">
-      <c r="A71" s="21" t="n">
-        <v>47</v>
-      </c>
-      <c r="B71" s="24" t="n"/>
-      <c r="C71" s="8" t="s">
+      <c r="B71" s="30" t="n"/>
+      <c r="C71" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D71" s="22" t="s"/>
-      <c r="E71" s="23" t="s"/>
+      <c r="D71" s="28" t="s"/>
+      <c r="E71" s="29" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="C59:E59"/>
+  <mergeCells count="22">
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C37:E37"/>
@@ -2488,6 +2519,17 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="C49:E49"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="C59:E59"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
 </worksheet>
@@ -2512,222 +2554,222 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="26.25" outlineLevel="0" r="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s"/>
+      <c r="E1" s="13" t="s"/>
     </row>
     <row customHeight="true" ht="27.75" outlineLevel="0" r="2">
-      <c r="A2" s="19" t="n"/>
-      <c r="B2" s="28" t="n">
+      <c r="A2" s="21" t="n"/>
+      <c r="B2" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="37" t="s"/>
-      <c r="E2" s="38" t="s"/>
+      <c r="D2" s="43" t="s"/>
+      <c r="E2" s="44" t="s"/>
     </row>
     <row customHeight="true" ht="36.25" outlineLevel="0" r="3">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="27" t="n">
         <v>48</v>
       </c>
-      <c r="B3" s="19" t="n"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="21" t="n"/>
+      <c r="C3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="23" t="s"/>
-      <c r="E3" s="39" t="n">
+      <c r="D3" s="29" t="s"/>
+      <c r="E3" s="45" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row customHeight="true" ht="29" outlineLevel="0" r="4">
-      <c r="A4" s="19" t="n"/>
-      <c r="B4" s="19" t="n"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="21" t="n"/>
+      <c r="B4" s="21" t="n"/>
+      <c r="C4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="22" t="s"/>
-      <c r="E4" s="23" t="s"/>
+      <c r="D4" s="28" t="s"/>
+      <c r="E4" s="29" t="s"/>
     </row>
     <row customHeight="true" ht="29" outlineLevel="0" r="5">
-      <c r="A5" s="16" t="n">
+      <c r="A5" s="17" t="n">
         <v>49</v>
       </c>
-      <c r="B5" s="19" t="n"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="21" t="n"/>
+      <c r="C5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="22" t="s"/>
-      <c r="E5" s="23" t="s"/>
+      <c r="D5" s="28" t="s"/>
+      <c r="E5" s="29" t="s"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="13" t="n"/>
-      <c r="B6" s="28" t="n">
+      <c r="A6" s="14" t="n"/>
+      <c r="B6" s="34" t="n">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="37" t="s"/>
-      <c r="E6" s="38" t="s"/>
+      <c r="D6" s="43" t="s"/>
+      <c r="E6" s="44" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="7">
-      <c r="A7" s="16" t="n">
+      <c r="A7" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="B7" s="13" t="n"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="14" t="n"/>
+      <c r="C7" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="23" t="s"/>
-      <c r="E7" s="40" t="n">
+      <c r="D7" s="29" t="s"/>
+      <c r="E7" s="46" t="n">
         <v>5.3</v>
       </c>
     </row>
     <row customHeight="true" ht="27" outlineLevel="0" r="8">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="17" t="n">
         <v>51</v>
       </c>
-      <c r="B8" s="19" t="n"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="21" t="n"/>
+      <c r="C8" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="26" t="s"/>
-      <c r="E8" s="40" t="n">
+      <c r="D8" s="32" t="s"/>
+      <c r="E8" s="46" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row customHeight="true" ht="50.25" outlineLevel="0" r="9">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="17" t="n">
         <v>52</v>
       </c>
-      <c r="B9" s="24" t="n"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="30" t="n"/>
+      <c r="C9" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="22" t="s"/>
-      <c r="E9" s="23" t="s"/>
+      <c r="D9" s="28" t="s"/>
+      <c r="E9" s="29" t="s"/>
     </row>
     <row customHeight="true" ht="38.5" outlineLevel="0" r="10">
-      <c r="A10" s="21" t="n">
+      <c r="A10" s="27" t="n">
         <v>53</v>
       </c>
-      <c r="B10" s="24" t="n"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="30" t="n"/>
+      <c r="C10" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="23" t="s"/>
-      <c r="E10" s="40" t="n">
+      <c r="D10" s="29" t="s"/>
+      <c r="E10" s="46" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row customHeight="true" ht="35.75" outlineLevel="0" r="11">
-      <c r="A11" s="21" t="n">
+      <c r="A11" s="27" t="n">
         <v>54</v>
       </c>
-      <c r="B11" s="19" t="n"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="21" t="n"/>
+      <c r="C11" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="26" t="s"/>
-      <c r="E11" s="40" t="n">
+      <c r="D11" s="32" t="s"/>
+      <c r="E11" s="46" t="n">
         <v>8.2</v>
       </c>
     </row>
     <row customHeight="true" ht="77.5" outlineLevel="0" r="12">
-      <c r="A12" s="21" t="n">
+      <c r="A12" s="27" t="n">
         <v>55</v>
       </c>
-      <c r="B12" s="24" t="n"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="30" t="n"/>
+      <c r="C12" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="23" t="s"/>
-      <c r="E12" s="40" t="n">
+      <c r="D12" s="29" t="s"/>
+      <c r="E12" s="46" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row customHeight="true" ht="45.25" outlineLevel="0" r="13">
-      <c r="A13" s="21" t="n">
+      <c r="A13" s="27" t="n">
         <v>56</v>
       </c>
-      <c r="B13" s="24" t="n"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="30" t="n"/>
+      <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="23" t="s"/>
-      <c r="E13" s="40" t="n">
+      <c r="D13" s="29" t="s"/>
+      <c r="E13" s="46" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row customHeight="true" ht="50.25" outlineLevel="0" r="14">
-      <c r="A14" s="16" t="n">
+      <c r="A14" s="17" t="n">
         <v>57</v>
       </c>
-      <c r="B14" s="24" t="n"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="30" t="n"/>
+      <c r="C14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="22" t="s"/>
-      <c r="E14" s="23" t="s"/>
+      <c r="D14" s="28" t="s"/>
+      <c r="E14" s="29" t="s"/>
     </row>
     <row customHeight="true" ht="29.25" outlineLevel="0" r="15">
-      <c r="A15" s="19" t="n"/>
-      <c r="B15" s="28" t="n">
+      <c r="A15" s="21" t="n"/>
+      <c r="B15" s="34" t="n">
         <v>12</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="38" t="s"/>
-      <c r="E15" s="40" t="n">
+      <c r="D15" s="44" t="s"/>
+      <c r="E15" s="46" t="n">
         <v>2.2</v>
       </c>
     </row>
     <row customHeight="true" ht="74.75" outlineLevel="0" r="16">
-      <c r="A16" s="21" t="n">
+      <c r="A16" s="27" t="n">
         <v>58</v>
       </c>
-      <c r="B16" s="24" t="n"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="30" t="n"/>
+      <c r="C16" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="26" t="s"/>
-      <c r="E16" s="40" t="n">
+      <c r="D16" s="32" t="s"/>
+      <c r="E16" s="46" t="n">
         <v>6.15</v>
       </c>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="17">
-      <c r="A17" s="13" t="n"/>
-      <c r="B17" s="28" t="n">
+      <c r="A17" s="14" t="n"/>
+      <c r="B17" s="34" t="n">
         <v>13</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="37" t="s"/>
-      <c r="E17" s="38" t="s"/>
+      <c r="D17" s="43" t="s"/>
+      <c r="E17" s="44" t="s"/>
     </row>
     <row customHeight="true" ht="38" outlineLevel="0" r="18">
-      <c r="A18" s="21" t="n">
+      <c r="A18" s="27" t="n">
         <v>59</v>
       </c>
-      <c r="B18" s="19" t="n"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="21" t="n"/>
+      <c r="C18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="22" t="s"/>
-      <c r="E18" s="23" t="s"/>
+      <c r="D18" s="28" t="s"/>
+      <c r="E18" s="29" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="18">

--- a/calc/files/letter_int.xlsx
+++ b/calc/files/letter_int.xlsx
@@ -333,7 +333,6 @@
       <t>Простые мелкие пакеты в Мексику</t>
     </r>
   </si>
-  <si/>
   <si>
     <r>
       <rPr>
@@ -1004,17 +1003,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
+    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1001"/>
+    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1002"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
-    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1001"/>
-    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1003"/>
-    <numFmt co:extendedFormatCode="0.0000000" formatCode="0.0000000" numFmtId="1004"/>
-    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1005"/>
+    <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1004"/>
+    <numFmt co:extendedFormatCode="0.0000000" formatCode="0.0000000" numFmtId="1005"/>
+    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1006"/>
   </numFmts>
   <fonts count="8">
     <font>
       <name val="Calibri"/>
-      <color rgb="000000" tint="0"/>
       <sz val="11"/>
     </font>
     <font>
@@ -1061,7 +1060,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="63">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -1084,6 +1083,18 @@
       </bottom>
     </border>
     <border>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
       <right style="none"/>
       <top style="none"/>
       <bottom style="thin">
@@ -1123,153 +1134,831 @@
         <color rgb="000000" tint="0"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+  <cellXfs count="92">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="right" indent="6" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" shrinkToFit="false" vertical="top" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="3" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="right" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="right" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="right" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="right" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="right" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="10" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="6" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="6" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="7" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1004" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1005" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="7" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="6" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="6" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="right" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1005" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="7" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="7" numFmtId="1005" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="7" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1005" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="7" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="left" indent="3" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="7" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="left" indent="3" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1544,971 +2233,985 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s"/>
-      <c r="C5" s="7" t="s"/>
-      <c r="D5" s="7" t="s"/>
-      <c r="E5" s="8" t="s"/>
+      <c r="C5" s="8" t="s"/>
+      <c r="D5" s="9" t="s"/>
+      <c r="E5" s="10" t="s"/>
     </row>
     <row customHeight="true" ht="26.25" outlineLevel="0" r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="13" t="s"/>
+      <c r="E6" s="15" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="7">
-      <c r="A7" s="14" t="n"/>
-      <c r="B7" s="15" t="n">
+      <c r="A7" s="16" t="n"/>
+      <c r="B7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="8">
-      <c r="A8" s="17" t="n">
+      <c r="A8" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="19" t="n">
+      <c r="D8" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="19" t="n">
+      <c r="E8" s="21" t="n">
         <v>2.25</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="9">
-      <c r="A9" s="14" t="n"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="16" t="n"/>
+      <c r="B9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="10">
-      <c r="A10" s="17" t="n">
+      <c r="A10" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="n"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="19" t="n">
+      <c r="D10" s="21" t="n">
         <v>2.25</v>
       </c>
-      <c r="E10" s="19" t="n">
+      <c r="E10" s="21" t="n">
         <v>2.7</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="11">
-      <c r="A11" s="17" t="n">
+      <c r="A11" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="n"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="19" t="n">
+      <c r="D11" s="21" t="n">
         <v>2.85</v>
       </c>
-      <c r="E11" s="19" t="n">
+      <c r="E11" s="21" t="n">
         <v>3.8</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="12">
-      <c r="A12" s="17" t="n">
+      <c r="A12" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="n"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="19" t="n">
+      <c r="D12" s="21" t="n">
         <v>3.9</v>
       </c>
-      <c r="E12" s="19" t="n">
+      <c r="E12" s="21" t="n">
         <v>5.35</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="13">
-      <c r="A13" s="17" t="n">
+      <c r="A13" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="14" t="n"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="19" t="n">
+      <c r="D13" s="21" t="n">
         <v>7.45</v>
       </c>
-      <c r="E13" s="19" t="n">
+      <c r="E13" s="21" t="n">
         <v>10.35</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="14">
-      <c r="A14" s="17" t="n">
+      <c r="A14" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="B14" s="14" t="n"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="19" t="n">
+      <c r="D14" s="21" t="n">
         <v>11.45</v>
       </c>
-      <c r="E14" s="19" t="n">
+      <c r="E14" s="21" t="n">
         <v>17.9</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="15">
-      <c r="A15" s="17" t="n">
+      <c r="A15" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="14" t="n"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="19" t="n">
+      <c r="D15" s="21" t="n">
         <v>21.55</v>
       </c>
-      <c r="E15" s="19" t="n">
+      <c r="E15" s="21" t="n">
         <v>33.55</v>
       </c>
+      <c r="F15" s="22" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="16">
-      <c r="A16" s="17" t="n">
+      <c r="A16" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="B16" s="14" t="n"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="19" t="n">
+      <c r="D16" s="21" t="n">
         <v>42.4</v>
       </c>
-      <c r="E16" s="19" t="n">
+      <c r="E16" s="21" t="n">
         <v>64.45</v>
       </c>
-      <c r="F16" s="20" t="n"/>
-      <c r="G16" s="20" t="n"/>
-      <c r="H16" s="20" t="n"/>
+      <c r="F16" s="23" t="n"/>
+      <c r="G16" s="23" t="n"/>
+      <c r="H16" s="23" t="n"/>
     </row>
     <row customHeight="true" ht="27" outlineLevel="0" r="17">
-      <c r="A17" s="21" t="n"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="24" t="n"/>
+      <c r="B17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="23" t="n"/>
-      <c r="G17" s="20" t="n"/>
+      <c r="F17" s="26" t="n"/>
+      <c r="G17" s="23" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="18">
-      <c r="A18" s="17" t="n">
+      <c r="A18" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="B18" s="14" t="n"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="19" t="n">
+      <c r="D18" s="21" t="n">
         <v>4.85</v>
       </c>
-      <c r="E18" s="19" t="n">
+      <c r="E18" s="21" t="n">
         <v>5.5</v>
       </c>
-      <c r="F18" s="24" t="n"/>
+      <c r="F18" s="27" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="19">
-      <c r="A19" s="17" t="n">
+      <c r="A19" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="B19" s="14" t="n"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="19" t="n">
+      <c r="D19" s="21" t="n">
         <v>16.35</v>
       </c>
-      <c r="E19" s="19" t="n">
+      <c r="E19" s="21" t="n">
         <v>27.25</v>
       </c>
-      <c r="F19" s="23" t="n"/>
+      <c r="F19" s="26" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="20">
-      <c r="A20" s="14" t="n"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="16" t="n"/>
+      <c r="B20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="23" t="n"/>
+      <c r="F20" s="26" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="21">
-      <c r="A21" s="17" t="n">
+      <c r="A21" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="14" t="n"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="16" t="n"/>
+      <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="19" t="n">
+      <c r="D21" s="21" t="n">
         <v>6.1</v>
       </c>
-      <c r="E21" s="19" t="n">
+      <c r="E21" s="21" t="n">
         <v>6.1</v>
       </c>
-      <c r="F21" s="25" t="n"/>
+      <c r="F21" s="0" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="22">
-      <c r="A22" s="17" t="n">
+      <c r="A22" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="14" t="n"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="19" t="n">
+      <c r="D22" s="21" t="n">
         <v>61.2</v>
       </c>
-      <c r="E22" s="19" t="n">
+      <c r="E22" s="21" t="n">
         <v>61.2</v>
       </c>
-      <c r="F22" s="25" t="n"/>
+      <c r="F22" s="0" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="23">
-      <c r="A23" s="14" t="n"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="16" t="n"/>
+      <c r="B23" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="25" t="n"/>
+      <c r="F23" s="0" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="24">
-      <c r="A24" s="17" t="n">
+      <c r="A24" s="19" t="n">
         <v>13</v>
       </c>
-      <c r="B24" s="14" t="n"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="19" t="n">
+      <c r="D24" s="21" t="n">
         <v>6.15</v>
       </c>
-      <c r="E24" s="19" t="n">
+      <c r="E24" s="21" t="n">
         <v>6.15</v>
       </c>
-      <c r="F24" s="25" t="n"/>
+      <c r="F24" s="0" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="25">
-      <c r="A25" s="17" t="n">
+      <c r="A25" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="B25" s="14" t="n"/>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="19" t="n">
+      <c r="D25" s="21" t="n">
         <v>44.5</v>
       </c>
-      <c r="E25" s="19" t="n">
+      <c r="E25" s="21" t="n">
         <v>44.5</v>
       </c>
-      <c r="F25" s="25" t="n"/>
+      <c r="F25" s="0" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="26">
-      <c r="A26" s="14" t="n"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="16" t="n"/>
+      <c r="B26" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="27">
-      <c r="A27" s="17" t="n">
+      <c r="A27" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="B27" s="14" t="n"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="19" t="n">
+      <c r="D27" s="21" t="n">
         <v>4.6</v>
       </c>
-      <c r="E27" s="19" t="n">
+      <c r="E27" s="21" t="n">
         <v>4.6</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="23" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="28">
+      <c r="A28" s="19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="21" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="E28" s="21" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="F28" s="23" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="29">
+      <c r="A29" s="16" t="n"/>
+      <c r="B29" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="28">
-      <c r="A28" s="17" t="n">
+      <c r="C29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="23" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="30">
+      <c r="A30" s="19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="21" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E30" s="21" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F30" s="23" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="31">
+      <c r="A31" s="19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B31" s="16" t="n"/>
+      <c r="C31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="21" t="n">
+        <v>53.65</v>
+      </c>
+      <c r="E31" s="21" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F31" s="22" t="n"/>
+      <c r="G31" s="22" t="n"/>
+      <c r="H31" s="22" t="n"/>
+    </row>
+    <row customHeight="true" ht="30.5" outlineLevel="0" r="32">
+      <c r="A32" s="28" t="n">
+        <v>19</v>
+      </c>
+      <c r="B32" s="24" t="n"/>
+      <c r="C32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="29" t="s"/>
+      <c r="E32" s="30" t="s"/>
+      <c r="F32" s="23" t="n"/>
+      <c r="G32" s="22" t="n"/>
+    </row>
+    <row customHeight="true" ht="40.5" outlineLevel="0" r="33">
+      <c r="A33" s="28" t="n">
+        <v>20</v>
+      </c>
+      <c r="B33" s="31" t="n"/>
+      <c r="C33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="32" t="s"/>
+      <c r="E33" s="33" t="s"/>
+      <c r="F33" s="23" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="34">
+      <c r="A34" s="16" t="n"/>
+      <c r="B34" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="16" t="n"/>
+      <c r="E34" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="23" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="35">
+      <c r="A35" s="19" t="n">
+        <v>21</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="16" t="n"/>
+      <c r="E35" s="21" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F35" s="23" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="36">
+      <c r="A36" s="16" t="n"/>
+      <c r="B36" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="16" t="n"/>
+      <c r="E36" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="27" outlineLevel="0" r="37">
+      <c r="A37" s="19" t="n">
+        <v>22</v>
+      </c>
+      <c r="B37" s="24" t="n"/>
+      <c r="C37" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="34" t="s"/>
+      <c r="E37" s="35" t="s"/>
+    </row>
+    <row customHeight="true" ht="27" outlineLevel="0" r="38">
+      <c r="A38" s="19" t="n">
+        <v>23</v>
+      </c>
+      <c r="B38" s="24" t="n"/>
+      <c r="C38" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="21" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E38" s="36" t="s"/>
+      <c r="F38" s="23" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="39">
+      <c r="A39" s="16" t="n"/>
+      <c r="B39" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="40">
+      <c r="A40" s="19" t="n">
+        <v>24</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="21" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E40" s="21" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="41">
+      <c r="A41" s="16" t="n"/>
+      <c r="B41" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="38" outlineLevel="0" r="42">
+      <c r="A42" s="28" t="n">
+        <v>25</v>
+      </c>
+      <c r="B42" s="24" t="n"/>
+      <c r="C42" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="37" t="s"/>
+      <c r="E42" s="38" t="s"/>
+    </row>
+    <row customHeight="true" ht="27" outlineLevel="0" r="43">
+      <c r="A43" s="19" t="n">
+        <v>26</v>
+      </c>
+      <c r="B43" s="24" t="n"/>
+      <c r="C43" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="21" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="E43" s="39" t="s"/>
+    </row>
+    <row customHeight="true" ht="26.25" outlineLevel="0" r="44">
+      <c r="A44" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="40" t="s"/>
+    </row>
+    <row customHeight="true" ht="27" outlineLevel="0" r="45">
+      <c r="A45" s="24" t="n"/>
+      <c r="B45" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="35" outlineLevel="0" r="46">
+      <c r="A46" s="28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B46" s="24" t="n"/>
+      <c r="C46" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="43" t="s"/>
+      <c r="E46" s="44" t="s"/>
+      <c r="F46" s="22" t="n"/>
+      <c r="G46" s="22" t="n"/>
+    </row>
+    <row customHeight="true" ht="29" outlineLevel="0" r="47">
+      <c r="A47" s="19" t="n">
+        <v>28</v>
+      </c>
+      <c r="B47" s="24" t="n"/>
+      <c r="C47" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="21" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="E47" s="45" t="s"/>
+    </row>
+    <row customHeight="true" ht="46.75" outlineLevel="0" r="48">
+      <c r="A48" s="19" t="n">
+        <v>29</v>
+      </c>
+      <c r="B48" s="31" t="n"/>
+      <c r="C48" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="46" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E48" s="47" t="s"/>
+    </row>
+    <row customHeight="true" ht="33.25" outlineLevel="0" r="49">
+      <c r="A49" s="28" t="n">
+        <v>30</v>
+      </c>
+      <c r="B49" s="24" t="n"/>
+      <c r="C49" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="48" t="s"/>
+      <c r="E49" s="49" t="s"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="50">
+      <c r="A50" s="16" t="n"/>
+      <c r="B50" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="51">
+      <c r="A51" s="19" t="n">
+        <v>31</v>
+      </c>
+      <c r="B51" s="16" t="n"/>
+      <c r="C51" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="14" t="n"/>
-      <c r="C28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="19" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="E28" s="19" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="F28" s="20" t="n"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="29">
-      <c r="A29" s="14" t="n"/>
-      <c r="B29" s="18" t="s">
+      <c r="D51" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="21" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="52">
+      <c r="A52" s="19" t="n">
+        <v>32</v>
+      </c>
+      <c r="B52" s="16" t="n"/>
+      <c r="C52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="21" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="53">
+      <c r="A53" s="19" t="n">
+        <v>33</v>
+      </c>
+      <c r="B53" s="16" t="n"/>
+      <c r="C53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="21" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="54">
+      <c r="A54" s="19" t="n">
         <v>34</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="B54" s="16" t="n"/>
+      <c r="C54" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="21" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="55">
+      <c r="A55" s="19" t="n">
         <v>35</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="B55" s="16" t="n"/>
+      <c r="C55" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="21" t="n">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="56">
+      <c r="A56" s="19" t="n">
+        <v>36</v>
+      </c>
+      <c r="B56" s="16" t="n"/>
+      <c r="C56" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="21" t="n">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="57">
+      <c r="A57" s="19" t="n">
+        <v>37</v>
+      </c>
+      <c r="B57" s="16" t="n"/>
+      <c r="C57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="21" t="n">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="58">
+      <c r="A58" s="19" t="n">
+        <v>38</v>
+      </c>
+      <c r="B58" s="16" t="n"/>
+      <c r="C58" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="21" t="n">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="46.477294921875" outlineLevel="0" r="59">
+      <c r="A59" s="28" t="n">
+        <v>39</v>
+      </c>
+      <c r="B59" s="31" t="n"/>
+      <c r="C59" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="51" t="s"/>
+      <c r="E59" s="52" t="s"/>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="60">
+      <c r="A60" s="19" t="n">
+        <v>40</v>
+      </c>
+      <c r="B60" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="16" t="n"/>
+      <c r="E60" s="21" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="61">
+      <c r="A61" s="16" t="n"/>
+      <c r="B61" s="41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="20" t="n"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="30">
-      <c r="A30" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="B30" s="14" t="n"/>
-      <c r="C30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="19" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E30" s="19" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F30" s="20" t="n"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="31">
-      <c r="A31" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="B31" s="14" t="n"/>
-      <c r="C31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="19" t="n">
-        <v>53.65</v>
-      </c>
-      <c r="E31" s="19" t="n">
-        <v>58.3</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="30.5" outlineLevel="0" r="32">
-      <c r="A32" s="27" t="n">
-        <v>19</v>
-      </c>
-      <c r="B32" s="21" t="n"/>
-      <c r="C32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="28" t="s"/>
-      <c r="E32" s="29" t="s"/>
-      <c r="F32" s="20" t="n"/>
-    </row>
-    <row customHeight="true" ht="40.5" outlineLevel="0" r="33">
-      <c r="A33" s="27" t="n">
-        <v>20</v>
-      </c>
-      <c r="B33" s="30" t="n"/>
-      <c r="C33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="28" t="s"/>
-      <c r="E33" s="29" t="s"/>
-      <c r="F33" s="20" t="n"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="34">
-      <c r="A34" s="14" t="n"/>
-      <c r="B34" s="15" t="n">
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="62">
+      <c r="A62" s="19" t="n">
+        <v>41</v>
+      </c>
+      <c r="B62" s="16" t="n"/>
+      <c r="C62" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="14" t="n"/>
-      <c r="E34" s="16" t="s">
+      <c r="E62" s="21" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="63">
+      <c r="A63" s="16" t="n"/>
+      <c r="B63" s="41" t="n">
+        <v>8</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="20" t="n"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="35">
-      <c r="A35" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="14" t="n"/>
-      <c r="E35" s="19" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F35" s="20" t="n"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="36">
-      <c r="A36" s="14" t="n"/>
-      <c r="B36" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="9" t="s">
+    </row>
+    <row customHeight="true" ht="27" outlineLevel="0" r="64">
+      <c r="A64" s="19" t="n">
         <v>42</v>
       </c>
-      <c r="D36" s="14" t="n"/>
-      <c r="E36" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="27" outlineLevel="0" r="37">
-      <c r="A37" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="B37" s="21" t="n"/>
-      <c r="C37" s="22" t="s">
+      <c r="B64" s="24" t="n"/>
+      <c r="C64" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="21" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="E64" s="21" t="n">
+        <v>22.45</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="32.75" outlineLevel="0" r="65">
+      <c r="A65" s="28" t="n">
         <v>43</v>
       </c>
-      <c r="D37" s="31" t="s"/>
-      <c r="E37" s="32" t="s"/>
-    </row>
-    <row customHeight="true" ht="27" outlineLevel="0" r="38">
-      <c r="A38" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="B38" s="21" t="n"/>
-      <c r="C38" s="22" t="s">
+      <c r="B65" s="24" t="n"/>
+      <c r="C65" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="53" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E65" s="54" t="s"/>
+    </row>
+    <row customHeight="true" ht="27" outlineLevel="0" r="66">
+      <c r="A66" s="19" t="n">
         <v>44</v>
       </c>
-      <c r="D38" s="19" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="E38" s="33" t="s"/>
-      <c r="F38" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="39">
-      <c r="A39" s="14" t="n"/>
-      <c r="B39" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C39" s="10" t="s">
+      <c r="B66" s="24" t="n"/>
+      <c r="C66" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="21" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="E66" s="55" t="s"/>
+    </row>
+    <row customHeight="true" ht="14.5" outlineLevel="0" r="67">
+      <c r="A67" s="16" t="n"/>
+      <c r="B67" s="41" t="n">
+        <v>9</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="56" t="s"/>
+      <c r="E67" s="57" t="s"/>
+    </row>
+    <row customHeight="true" ht="38.5" outlineLevel="0" r="68">
+      <c r="A68" s="28" t="n">
         <v>45</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="B68" s="31" t="n"/>
+      <c r="C68" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="58" t="s"/>
+      <c r="E68" s="46" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="27" outlineLevel="0" r="69">
+      <c r="A69" s="19" t="n">
         <v>46</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="40">
-      <c r="A40" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="B40" s="18" t="s">
+      <c r="B69" s="24" t="n"/>
+      <c r="C69" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="59" t="s"/>
+      <c r="E69" s="21" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="16.75" outlineLevel="0" r="70">
+      <c r="A70" s="16" t="n"/>
+      <c r="B70" s="16" t="n"/>
+      <c r="C70" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="60" t="s"/>
+      <c r="E70" s="61" t="s"/>
+    </row>
+    <row customHeight="true" ht="59.25" outlineLevel="0" r="71">
+      <c r="A71" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="19" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E40" s="19" t="n">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="41">
-      <c r="A41" s="14" t="n"/>
-      <c r="B41" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="38" outlineLevel="0" r="42">
-      <c r="A42" s="27" t="n">
-        <v>25</v>
-      </c>
-      <c r="B42" s="21" t="n"/>
-      <c r="C42" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="28" t="s"/>
-      <c r="E42" s="29" t="s"/>
-    </row>
-    <row customHeight="true" ht="27" outlineLevel="0" r="43">
-      <c r="A43" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="B43" s="21" t="n"/>
-      <c r="C43" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="19" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="E43" s="33" t="s"/>
-    </row>
-    <row customHeight="true" ht="26.25" outlineLevel="0" r="44">
-      <c r="A44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="29" t="s"/>
-    </row>
-    <row customHeight="true" ht="27" outlineLevel="0" r="45">
-      <c r="A45" s="21" t="n"/>
-      <c r="B45" s="34" t="n">
-        <v>4</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="35" outlineLevel="0" r="46">
-      <c r="A46" s="27" t="n">
-        <v>27</v>
-      </c>
-      <c r="B46" s="21" t="n"/>
-      <c r="C46" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="28" t="s"/>
-      <c r="E46" s="29" t="s"/>
-    </row>
-    <row customHeight="true" ht="29" outlineLevel="0" r="47">
-      <c r="A47" s="17" t="n">
-        <v>28</v>
-      </c>
-      <c r="B47" s="21" t="n"/>
-      <c r="C47" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="19" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="E47" s="33" t="s"/>
-    </row>
-    <row customHeight="true" ht="46.75" outlineLevel="0" r="48">
-      <c r="A48" s="17" t="n">
-        <v>29</v>
-      </c>
-      <c r="B48" s="30" t="n"/>
-      <c r="C48" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="36" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E48" s="37" t="s"/>
-    </row>
-    <row customHeight="true" ht="33.25" outlineLevel="0" r="49">
-      <c r="A49" s="27" t="n">
-        <v>30</v>
-      </c>
-      <c r="B49" s="21" t="n"/>
-      <c r="C49" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="28" t="s"/>
-      <c r="E49" s="29" t="s"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="50">
-      <c r="A50" s="14" t="n"/>
-      <c r="B50" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="51">
-      <c r="A51" s="17" t="n">
-        <v>31</v>
-      </c>
-      <c r="B51" s="14" t="n"/>
-      <c r="C51" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E51" s="19" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="52">
-      <c r="A52" s="17" t="n">
-        <v>32</v>
-      </c>
-      <c r="B52" s="14" t="n"/>
-      <c r="C52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="19" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="53">
-      <c r="A53" s="17" t="n">
-        <v>33</v>
-      </c>
-      <c r="B53" s="14" t="n"/>
-      <c r="C53" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="19" t="n">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="54">
-      <c r="A54" s="17" t="n">
-        <v>34</v>
-      </c>
-      <c r="B54" s="14" t="n"/>
-      <c r="C54" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="19" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="55">
-      <c r="A55" s="17" t="n">
-        <v>35</v>
-      </c>
-      <c r="B55" s="14" t="n"/>
-      <c r="C55" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="19" t="n">
-        <v>7.35</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="56">
-      <c r="A56" s="17" t="n">
-        <v>36</v>
-      </c>
-      <c r="B56" s="14" t="n"/>
-      <c r="C56" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56" s="19" t="n">
-        <v>14.75</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="57">
-      <c r="A57" s="17" t="n">
-        <v>37</v>
-      </c>
-      <c r="B57" s="14" t="n"/>
-      <c r="C57" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" s="19" t="n">
-        <v>29.55</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="58">
-      <c r="A58" s="17" t="n">
-        <v>38</v>
-      </c>
-      <c r="B58" s="14" t="n"/>
-      <c r="C58" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" s="19" t="n">
-        <v>14.75</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="46.477294921875" outlineLevel="0" r="59">
-      <c r="A59" s="27" t="n">
-        <v>39</v>
-      </c>
-      <c r="B59" s="30" t="n"/>
-      <c r="C59" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="39" t="s"/>
-      <c r="E59" s="40" t="s"/>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="60">
-      <c r="A60" s="17" t="n">
-        <v>40</v>
-      </c>
-      <c r="B60" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="14" t="n"/>
-      <c r="E60" s="19" t="n">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="61">
-      <c r="A61" s="14" t="n"/>
-      <c r="B61" s="34" t="n">
-        <v>7</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="62">
-      <c r="A62" s="17" t="n">
-        <v>41</v>
-      </c>
-      <c r="B62" s="14" t="n"/>
-      <c r="C62" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E62" s="19" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="63">
-      <c r="A63" s="14" t="n"/>
-      <c r="B63" s="34" t="n">
-        <v>8</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="27" outlineLevel="0" r="64">
-      <c r="A64" s="17" t="n">
-        <v>42</v>
-      </c>
-      <c r="B64" s="21" t="n"/>
-      <c r="C64" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="19" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="E64" s="19" t="n">
-        <v>22.45</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="32.75" outlineLevel="0" r="65">
-      <c r="A65" s="27" t="n">
-        <v>43</v>
-      </c>
-      <c r="B65" s="21" t="n"/>
-      <c r="C65" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="41" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="E65" s="42" t="s"/>
-    </row>
-    <row customHeight="true" ht="27" outlineLevel="0" r="66">
-      <c r="A66" s="17" t="n">
-        <v>44</v>
-      </c>
-      <c r="B66" s="21" t="n"/>
-      <c r="C66" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="19" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="E66" s="33" t="s"/>
-    </row>
-    <row customHeight="true" ht="14.5" outlineLevel="0" r="67">
-      <c r="A67" s="14" t="n"/>
-      <c r="B67" s="34" t="n">
-        <v>9</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="43" t="s"/>
-      <c r="E67" s="44" t="s"/>
-    </row>
-    <row customHeight="true" ht="38.5" outlineLevel="0" r="68">
-      <c r="A68" s="27" t="n">
-        <v>45</v>
-      </c>
-      <c r="B68" s="30" t="n"/>
-      <c r="C68" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" s="29" t="s"/>
-      <c r="E68" s="36" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="27" outlineLevel="0" r="69">
-      <c r="A69" s="17" t="n">
-        <v>46</v>
-      </c>
-      <c r="B69" s="21" t="n"/>
-      <c r="C69" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="32" t="s"/>
-      <c r="E69" s="19" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="16.75" outlineLevel="0" r="70">
-      <c r="A70" s="14" t="n"/>
-      <c r="B70" s="14" t="n"/>
-      <c r="C70" s="10" t="s">
+      <c r="B71" s="31" t="n"/>
+      <c r="C71" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D70" s="43" t="s"/>
-      <c r="E70" s="44" t="s"/>
-    </row>
-    <row customHeight="true" ht="59.25" outlineLevel="0" r="71">
-      <c r="A71" s="27" t="n">
-        <v>47</v>
-      </c>
-      <c r="B71" s="30" t="n"/>
-      <c r="C71" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D71" s="28" t="s"/>
-      <c r="E71" s="29" t="s"/>
+      <c r="D71" s="62" t="s"/>
+      <c r="E71" s="63" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="C59:E59"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="D38:E38"/>
@@ -2519,17 +3222,6 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="C49:E49"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="C59:E59"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
 </worksheet>
@@ -2554,222 +3246,222 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="26.25" outlineLevel="0" r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="13" t="s"/>
+      <c r="E1" s="64" t="s"/>
     </row>
     <row customHeight="true" ht="27.75" outlineLevel="0" r="2">
-      <c r="A2" s="21" t="n"/>
-      <c r="B2" s="34" t="n">
+      <c r="A2" s="24" t="n"/>
+      <c r="B2" s="41" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="65" t="s"/>
+      <c r="E2" s="66" t="s"/>
+    </row>
+    <row customHeight="true" ht="36.25" outlineLevel="0" r="3">
+      <c r="A3" s="28" t="n">
+        <v>48</v>
+      </c>
+      <c r="B3" s="24" t="n"/>
+      <c r="C3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="43" t="s"/>
-      <c r="E2" s="44" t="s"/>
-    </row>
-    <row customHeight="true" ht="36.25" outlineLevel="0" r="3">
-      <c r="A3" s="27" t="n">
-        <v>48</v>
-      </c>
-      <c r="B3" s="21" t="n"/>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="67" t="s"/>
+      <c r="E3" s="68" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="29" outlineLevel="0" r="4">
+      <c r="A4" s="24" t="n"/>
+      <c r="B4" s="24" t="n"/>
+      <c r="C4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="29" t="s"/>
-      <c r="E3" s="45" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="29" outlineLevel="0" r="4">
-      <c r="A4" s="21" t="n"/>
-      <c r="B4" s="21" t="n"/>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="69" t="s"/>
+      <c r="E4" s="70" t="s"/>
+    </row>
+    <row customHeight="true" ht="29" outlineLevel="0" r="5">
+      <c r="A5" s="19" t="n">
+        <v>49</v>
+      </c>
+      <c r="B5" s="24" t="n"/>
+      <c r="C5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="28" t="s"/>
-      <c r="E4" s="29" t="s"/>
-    </row>
-    <row customHeight="true" ht="29" outlineLevel="0" r="5">
-      <c r="A5" s="17" t="n">
-        <v>49</v>
-      </c>
-      <c r="B5" s="21" t="n"/>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="71" t="s"/>
+      <c r="E5" s="72" t="s"/>
+    </row>
+    <row customHeight="true" ht="15" outlineLevel="0" r="6">
+      <c r="A6" s="16" t="n"/>
+      <c r="B6" s="41" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="28" t="s"/>
-      <c r="E5" s="29" t="s"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="14" t="n"/>
-      <c r="B6" s="34" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="73" t="s"/>
+      <c r="E6" s="74" t="s"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="7">
+      <c r="A7" s="19" t="n">
+        <v>50</v>
+      </c>
+      <c r="B7" s="16" t="n"/>
+      <c r="C7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="43" t="s"/>
-      <c r="E6" s="44" t="s"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="7">
-      <c r="A7" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="B7" s="14" t="n"/>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="75" t="s"/>
+      <c r="E7" s="76" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="27" outlineLevel="0" r="8">
+      <c r="A8" s="19" t="n">
+        <v>51</v>
+      </c>
+      <c r="B8" s="24" t="n"/>
+      <c r="C8" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="29" t="s"/>
-      <c r="E7" s="46" t="n">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="27" outlineLevel="0" r="8">
-      <c r="A8" s="17" t="n">
-        <v>51</v>
-      </c>
-      <c r="B8" s="21" t="n"/>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="77" t="s"/>
+      <c r="E8" s="76" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="50.25" outlineLevel="0" r="9">
+      <c r="A9" s="19" t="n">
+        <v>52</v>
+      </c>
+      <c r="B9" s="31" t="n"/>
+      <c r="C9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="32" t="s"/>
-      <c r="E8" s="46" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="50.25" outlineLevel="0" r="9">
-      <c r="A9" s="17" t="n">
-        <v>52</v>
-      </c>
-      <c r="B9" s="30" t="n"/>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="78" t="s"/>
+      <c r="E9" s="79" t="s"/>
+    </row>
+    <row customHeight="true" ht="38.5" outlineLevel="0" r="10">
+      <c r="A10" s="28" t="n">
+        <v>53</v>
+      </c>
+      <c r="B10" s="31" t="n"/>
+      <c r="C10" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="28" t="s"/>
-      <c r="E9" s="29" t="s"/>
-    </row>
-    <row customHeight="true" ht="38.5" outlineLevel="0" r="10">
-      <c r="A10" s="27" t="n">
-        <v>53</v>
-      </c>
-      <c r="B10" s="30" t="n"/>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="80" t="s"/>
+      <c r="E10" s="76" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="35.75" outlineLevel="0" r="11">
+      <c r="A11" s="28" t="n">
+        <v>54</v>
+      </c>
+      <c r="B11" s="24" t="n"/>
+      <c r="C11" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="29" t="s"/>
-      <c r="E10" s="46" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="35.75" outlineLevel="0" r="11">
-      <c r="A11" s="27" t="n">
-        <v>54</v>
-      </c>
-      <c r="B11" s="21" t="n"/>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="81" t="s"/>
+      <c r="E11" s="76" t="n">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="77.5" outlineLevel="0" r="12">
+      <c r="A12" s="28" t="n">
+        <v>55</v>
+      </c>
+      <c r="B12" s="31" t="n"/>
+      <c r="C12" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="32" t="s"/>
-      <c r="E11" s="46" t="n">
-        <v>8.2</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="77.5" outlineLevel="0" r="12">
-      <c r="A12" s="27" t="n">
-        <v>55</v>
-      </c>
-      <c r="B12" s="30" t="n"/>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="82" t="s"/>
+      <c r="E12" s="76" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="45.25" outlineLevel="0" r="13">
+      <c r="A13" s="28" t="n">
+        <v>56</v>
+      </c>
+      <c r="B13" s="31" t="n"/>
+      <c r="C13" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="29" t="s"/>
-      <c r="E12" s="46" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="45.25" outlineLevel="0" r="13">
-      <c r="A13" s="27" t="n">
-        <v>56</v>
-      </c>
-      <c r="B13" s="30" t="n"/>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="83" t="s"/>
+      <c r="E13" s="76" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="50.25" outlineLevel="0" r="14">
+      <c r="A14" s="19" t="n">
+        <v>57</v>
+      </c>
+      <c r="B14" s="31" t="n"/>
+      <c r="C14" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="29" t="s"/>
-      <c r="E13" s="46" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="50.25" outlineLevel="0" r="14">
-      <c r="A14" s="17" t="n">
-        <v>57</v>
-      </c>
-      <c r="B14" s="30" t="n"/>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="84" t="s"/>
+      <c r="E14" s="85" t="s"/>
+    </row>
+    <row customHeight="true" ht="29.25" outlineLevel="0" r="15">
+      <c r="A15" s="24" t="n"/>
+      <c r="B15" s="41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="28" t="s"/>
-      <c r="E14" s="29" t="s"/>
-    </row>
-    <row customHeight="true" ht="29.25" outlineLevel="0" r="15">
-      <c r="A15" s="21" t="n"/>
-      <c r="B15" s="34" t="n">
-        <v>12</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="86" t="s"/>
+      <c r="E15" s="76" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="74.75" outlineLevel="0" r="16">
+      <c r="A16" s="28" t="n">
+        <v>58</v>
+      </c>
+      <c r="B16" s="31" t="n"/>
+      <c r="C16" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="44" t="s"/>
-      <c r="E15" s="46" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="74.75" outlineLevel="0" r="16">
-      <c r="A16" s="27" t="n">
-        <v>58</v>
-      </c>
-      <c r="B16" s="30" t="n"/>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="87" t="s"/>
+      <c r="E16" s="76" t="n">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="17">
+      <c r="A17" s="16" t="n"/>
+      <c r="B17" s="41" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="88" t="s"/>
+      <c r="E17" s="89" t="s"/>
+    </row>
+    <row customHeight="true" ht="38" outlineLevel="0" r="18">
+      <c r="A18" s="28" t="n">
+        <v>59</v>
+      </c>
+      <c r="B18" s="24" t="n"/>
+      <c r="C18" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="32" t="s"/>
-      <c r="E16" s="46" t="n">
-        <v>6.15</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="17">
-      <c r="A17" s="14" t="n"/>
-      <c r="B17" s="34" t="n">
-        <v>13</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="43" t="s"/>
-      <c r="E17" s="44" t="s"/>
-    </row>
-    <row customHeight="true" ht="38" outlineLevel="0" r="18">
-      <c r="A18" s="27" t="n">
-        <v>59</v>
-      </c>
-      <c r="B18" s="21" t="n"/>
-      <c r="C18" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="28" t="s"/>
-      <c r="E18" s="29" t="s"/>
+      <c r="D18" s="90" t="s"/>
+      <c r="E18" s="91" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="18">

--- a/calc/files/letter_int.xlsx
+++ b/calc/files/letter_int.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="Table 1" r:id="rId1" sheetId="1" state="visible"/>
     <sheet name="Table 2" r:id="rId2" sheetId="2" state="visible"/>
+    <sheet name="Лист1" r:id="rId3" sheetId="3" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr calcCompleted="true" calcMode="auto" calcOnSave="false" fullCalcOnLoad="false"/>
@@ -771,10 +772,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
+    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1002"/>
+    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1003"/>
     <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1001"/>
-    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1002"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
-    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1003"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -2726,9 +2727,9 @@
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C54:D54"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C58:D58"/>
@@ -2761,35 +2762,28 @@
     <col customWidth="true" max="5" min="5" outlineLevel="0" width="13.7965022185299"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="25.5" outlineLevel="0" r="1">
-      <c r="A1" t="n"/>
-      <c r="B1" t="n"/>
-      <c r="C1" t="n"/>
-      <c r="D1" t="n"/>
-    </row>
-    <row customHeight="true" ht="28.25" outlineLevel="0" r="2">
-      <c r="A2" t="n"/>
-      <c r="B2" t="n"/>
-      <c r="C2" t="n"/>
-      <c r="E2" t="n"/>
-    </row>
-    <row customHeight="true" ht="86.5" outlineLevel="0" r="3">
-      <c r="A3" t="n"/>
-      <c r="B3" t="n"/>
-      <c r="C3" t="n"/>
-      <c r="E3" t="n"/>
-    </row>
-    <row customHeight="true" ht="12.75" outlineLevel="0" r="4">
-      <c r="A4" t="n"/>
-      <c r="B4" t="n"/>
-      <c r="C4" t="n"/>
-    </row>
-    <row customHeight="true" ht="36.75" outlineLevel="0" r="5">
-      <c r="A5" t="n"/>
-      <c r="B5" t="n"/>
-      <c r="C5" t="n"/>
-    </row>
+    <row customHeight="true" ht="25.5" outlineLevel="0" r="1"/>
+    <row customHeight="true" ht="28.25" outlineLevel="0" r="2"/>
+    <row customHeight="true" ht="86.5" outlineLevel="0" r="3"/>
+    <row customHeight="true" ht="12.75" outlineLevel="0" r="4"/>
+    <row customHeight="true" ht="36.75" outlineLevel="0" r="5"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
+  <dimension ref="A1:Z300"/>
+  <sheetViews>
+    <sheetView showZeros="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetData/>
+  <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297.1798mm" paperSize="9" paperWidth="210.0438mm" scale="100"/>
+</worksheet>
 </file>